--- a/dados_meteorologicos/dados_geada.xlsx
+++ b/dados_meteorologicos/dados_geada.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4621" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4621" uniqueCount="454">
   <si>
     <t>Cod. IBGE</t>
   </si>
@@ -1009,376 +1009,373 @@
     <t>11/08/2024</t>
   </si>
   <si>
-    <t>3°C</t>
-  </si>
-  <si>
-    <t>5°C</t>
-  </si>
-  <si>
-    <t>4,8°C</t>
-  </si>
-  <si>
-    <t>0,9°C</t>
-  </si>
-  <si>
-    <t>-2,6°C</t>
-  </si>
-  <si>
-    <t>6,2°C</t>
-  </si>
-  <si>
-    <t>1,2°C</t>
+    <t>3.0°C</t>
+  </si>
+  <si>
+    <t>5.0°C</t>
+  </si>
+  <si>
+    <t>4.8°C</t>
+  </si>
+  <si>
+    <t>0.9°C</t>
+  </si>
+  <si>
+    <t>-2.6°C</t>
+  </si>
+  <si>
+    <t>6.2°C</t>
+  </si>
+  <si>
+    <t>1.2°C</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>1,8°C</t>
-  </si>
-  <si>
-    <t>2,4°C</t>
-  </si>
-  <si>
-    <t>1,5°C</t>
-  </si>
-  <si>
-    <t>7°C</t>
-  </si>
-  <si>
-    <t>4,6°C</t>
-  </si>
-  <si>
-    <t>2,8°C</t>
-  </si>
-  <si>
-    <t>-0,5°C</t>
-  </si>
-  <si>
-    <t>5,9°C</t>
-  </si>
-  <si>
-    <t>3,1°C</t>
-  </si>
-  <si>
-    <t>4,4°C</t>
-  </si>
-  <si>
-    <t>1°C</t>
-  </si>
-  <si>
-    <t>4,7°C</t>
-  </si>
-  <si>
-    <t>1,7°C</t>
-  </si>
-  <si>
-    <t>7,9°C</t>
-  </si>
-  <si>
-    <t>4,5°C</t>
-  </si>
-  <si>
-    <t>4,2°C</t>
-  </si>
-  <si>
-    <t>3,3°C</t>
-  </si>
-  <si>
-    <t>1,4°C</t>
-  </si>
-  <si>
-    <t>0,2°C</t>
-  </si>
-  <si>
-    <t>3,6°C</t>
-  </si>
-  <si>
-    <t>2,6°C</t>
-  </si>
-  <si>
-    <t>0,8°C</t>
-  </si>
-  <si>
-    <t>2,2°C</t>
-  </si>
-  <si>
-    <t>-2,8°C</t>
-  </si>
-  <si>
-    <t>6,8°C</t>
-  </si>
-  <si>
-    <t>5,3°C</t>
-  </si>
-  <si>
-    <t>2,3°C</t>
-  </si>
-  <si>
-    <t>4,9°C</t>
-  </si>
-  <si>
-    <t>-0,6°C</t>
-  </si>
-  <si>
-    <t>-0,3°C</t>
-  </si>
-  <si>
-    <t>-1,6°C</t>
-  </si>
-  <si>
-    <t>-2,5°C</t>
-  </si>
-  <si>
-    <t>-1,8°C</t>
-  </si>
-  <si>
-    <t>7,4°C</t>
-  </si>
-  <si>
-    <t>5,8°C</t>
-  </si>
-  <si>
-    <t>3,8°C</t>
-  </si>
-  <si>
-    <t>-4°C</t>
-  </si>
-  <si>
-    <t>-2,2°C</t>
-  </si>
-  <si>
-    <t>1,9°C</t>
-  </si>
-  <si>
-    <t>-2,9°C</t>
-  </si>
-  <si>
-    <t>2,1°C</t>
-  </si>
-  <si>
-    <t>-2,3°C</t>
-  </si>
-  <si>
-    <t>-1,2°C</t>
-  </si>
-  <si>
-    <t>-0,2°C</t>
-  </si>
-  <si>
-    <t>1,1°C</t>
-  </si>
-  <si>
-    <t>-1°C</t>
-  </si>
-  <si>
-    <t>4°C</t>
-  </si>
-  <si>
-    <t>2°C</t>
-  </si>
-  <si>
-    <t>8,1°C</t>
-  </si>
-  <si>
-    <t>3,7°C</t>
-  </si>
-  <si>
-    <t>9,2°C</t>
-  </si>
-  <si>
-    <t>12,4°C</t>
-  </si>
-  <si>
-    <t>-0,1°C</t>
-  </si>
-  <si>
-    <t>4,1°C</t>
-  </si>
-  <si>
-    <t>3,5°C</t>
-  </si>
-  <si>
-    <t>-0,4°C</t>
-  </si>
-  <si>
-    <t>6,4°C</t>
-  </si>
-  <si>
-    <t>0,6°C</t>
-  </si>
-  <si>
-    <t>2,9°C</t>
-  </si>
-  <si>
-    <t>5,4°C</t>
-  </si>
-  <si>
-    <t>5,6°C</t>
-  </si>
-  <si>
-    <t>0,3°C</t>
-  </si>
-  <si>
-    <t>7,6°C</t>
-  </si>
-  <si>
-    <t>-2°C</t>
-  </si>
-  <si>
-    <t>0°C</t>
-  </si>
-  <si>
-    <t>1,6°C</t>
-  </si>
-  <si>
-    <t>3,2°C</t>
-  </si>
-  <si>
-    <t>0,7°C</t>
-  </si>
-  <si>
-    <t>9,4°C</t>
-  </si>
-  <si>
-    <t>0,5°C</t>
-  </si>
-  <si>
-    <t>-0,7°C</t>
-  </si>
-  <si>
-    <t>6°C</t>
-  </si>
-  <si>
-    <t>7,2°C</t>
-  </si>
-  <si>
-    <t>0,1°C</t>
-  </si>
-  <si>
-    <t>5,7°C</t>
-  </si>
-  <si>
-    <t>14,8°C</t>
-  </si>
-  <si>
-    <t>3,4°C</t>
-  </si>
-  <si>
-    <t>11,8°C</t>
-  </si>
-  <si>
-    <t>3,9°C</t>
-  </si>
-  <si>
-    <t>2,7°C</t>
-  </si>
-  <si>
-    <t>7,8°C</t>
-  </si>
-  <si>
-    <t>6,9°C</t>
-  </si>
-  <si>
-    <t>6,6°C</t>
-  </si>
-  <si>
-    <t>5,1°C</t>
-  </si>
-  <si>
-    <t>5,2°C</t>
-  </si>
-  <si>
-    <t>4,3°C</t>
-  </si>
-  <si>
-    <t>8,6°C</t>
-  </si>
-  <si>
-    <t>-1,1°C</t>
-  </si>
-  <si>
-    <t>-0,8°C</t>
-  </si>
-  <si>
-    <t>-3,9°C</t>
-  </si>
-  <si>
-    <t>-3,4°C</t>
-  </si>
-  <si>
-    <t>-2,4°C</t>
-  </si>
-  <si>
-    <t>-3,5°C</t>
-  </si>
-  <si>
-    <t>-1,9°C</t>
-  </si>
-  <si>
-    <t>-3°C</t>
-  </si>
-  <si>
-    <t>0,4°C</t>
-  </si>
-  <si>
-    <t>8°C</t>
-  </si>
-  <si>
-    <t>2,5°C</t>
-  </si>
-  <si>
-    <t>-2,1°C</t>
-  </si>
-  <si>
-    <t>9,9°C</t>
-  </si>
-  <si>
-    <t>-1,3°C</t>
-  </si>
-  <si>
-    <t>-1,7°C</t>
-  </si>
-  <si>
-    <t>1,3°C</t>
-  </si>
-  <si>
-    <t>-1,4°C</t>
-  </si>
-  <si>
-    <t>-4,2°C</t>
-  </si>
-  <si>
-    <t>-3,3°C</t>
-  </si>
-  <si>
-    <t>-3,2°C</t>
-  </si>
-  <si>
-    <t>10°C</t>
-  </si>
-  <si>
-    <t>7,7°C</t>
-  </si>
-  <si>
-    <t>6,5°C</t>
-  </si>
-  <si>
-    <t>9,8°C</t>
-  </si>
-  <si>
-    <t>-5,9°C</t>
+    <t>1.8°C</t>
+  </si>
+  <si>
+    <t>2.4°C</t>
+  </si>
+  <si>
+    <t>1.5°C</t>
+  </si>
+  <si>
+    <t>7.0°C</t>
+  </si>
+  <si>
+    <t>4.6°C</t>
+  </si>
+  <si>
+    <t>2.8°C</t>
+  </si>
+  <si>
+    <t>-0.5°C</t>
+  </si>
+  <si>
+    <t>5.9°C</t>
+  </si>
+  <si>
+    <t>3.1°C</t>
+  </si>
+  <si>
+    <t>4.4°C</t>
+  </si>
+  <si>
+    <t>1.0°C</t>
+  </si>
+  <si>
+    <t>4.7°C</t>
+  </si>
+  <si>
+    <t>1.7°C</t>
+  </si>
+  <si>
+    <t>7.9°C</t>
+  </si>
+  <si>
+    <t>4.5°C</t>
+  </si>
+  <si>
+    <t>4.2°C</t>
+  </si>
+  <si>
+    <t>3.3°C</t>
+  </si>
+  <si>
+    <t>1.4°C</t>
+  </si>
+  <si>
+    <t>0.2°C</t>
+  </si>
+  <si>
+    <t>3.6°C</t>
+  </si>
+  <si>
+    <t>2.6°C</t>
+  </si>
+  <si>
+    <t>0.8°C</t>
+  </si>
+  <si>
+    <t>2.2°C</t>
+  </si>
+  <si>
+    <t>-2.8°C</t>
+  </si>
+  <si>
+    <t>6.8°C</t>
+  </si>
+  <si>
+    <t>5.3°C</t>
+  </si>
+  <si>
+    <t>2.3°C</t>
+  </si>
+  <si>
+    <t>4.9°C</t>
+  </si>
+  <si>
+    <t>-0.6°C</t>
+  </si>
+  <si>
+    <t>-0.3°C</t>
+  </si>
+  <si>
+    <t>-1.6°C</t>
+  </si>
+  <si>
+    <t>-2.5°C</t>
+  </si>
+  <si>
+    <t>-1.8°C</t>
+  </si>
+  <si>
+    <t>7.4°C</t>
+  </si>
+  <si>
+    <t>5.8°C</t>
+  </si>
+  <si>
+    <t>3.8°C</t>
+  </si>
+  <si>
+    <t>-4.0°C</t>
+  </si>
+  <si>
+    <t>-2.2°C</t>
+  </si>
+  <si>
+    <t>1.9°C</t>
+  </si>
+  <si>
+    <t>-2.9°C</t>
+  </si>
+  <si>
+    <t>2.1°C</t>
+  </si>
+  <si>
+    <t>-2.3°C</t>
+  </si>
+  <si>
+    <t>-1.2°C</t>
+  </si>
+  <si>
+    <t>-0.2°C</t>
+  </si>
+  <si>
+    <t>1.1°C</t>
+  </si>
+  <si>
+    <t>-1.0°C</t>
+  </si>
+  <si>
+    <t>4.0°C</t>
+  </si>
+  <si>
+    <t>2.0°C</t>
+  </si>
+  <si>
+    <t>8.1°C</t>
+  </si>
+  <si>
+    <t>3.7°C</t>
+  </si>
+  <si>
+    <t>9.2°C</t>
+  </si>
+  <si>
+    <t>12.4°C</t>
+  </si>
+  <si>
+    <t>-0.1°C</t>
+  </si>
+  <si>
+    <t>4.1°C</t>
+  </si>
+  <si>
+    <t>3.5°C</t>
+  </si>
+  <si>
+    <t>-0.4°C</t>
+  </si>
+  <si>
+    <t>6.4°C</t>
+  </si>
+  <si>
+    <t>0.6°C</t>
+  </si>
+  <si>
+    <t>2.9°C</t>
+  </si>
+  <si>
+    <t>5.4°C</t>
+  </si>
+  <si>
+    <t>5.6°C</t>
+  </si>
+  <si>
+    <t>0.3°C</t>
+  </si>
+  <si>
+    <t>7.6°C</t>
+  </si>
+  <si>
+    <t>-2.0°C</t>
+  </si>
+  <si>
+    <t>0.0°C</t>
+  </si>
+  <si>
+    <t>1.6°C</t>
+  </si>
+  <si>
+    <t>3.2°C</t>
+  </si>
+  <si>
+    <t>0.7°C</t>
+  </si>
+  <si>
+    <t>9.4°C</t>
+  </si>
+  <si>
+    <t>0.5°C</t>
+  </si>
+  <si>
+    <t>-0.7°C</t>
+  </si>
+  <si>
+    <t>6.0°C</t>
+  </si>
+  <si>
+    <t>7.2°C</t>
+  </si>
+  <si>
+    <t>0.1°C</t>
+  </si>
+  <si>
+    <t>5.7°C</t>
+  </si>
+  <si>
+    <t>14.8°C</t>
+  </si>
+  <si>
+    <t>3.4°C</t>
+  </si>
+  <si>
+    <t>11.8°C</t>
+  </si>
+  <si>
+    <t>3.9°C</t>
+  </si>
+  <si>
+    <t>2.7°C</t>
+  </si>
+  <si>
+    <t>7.8°C</t>
+  </si>
+  <si>
+    <t>6.9°C</t>
+  </si>
+  <si>
+    <t>6.6°C</t>
+  </si>
+  <si>
+    <t>5.1°C</t>
+  </si>
+  <si>
+    <t>5.2°C</t>
+  </si>
+  <si>
+    <t>4.3°C</t>
+  </si>
+  <si>
+    <t>8.6°C</t>
+  </si>
+  <si>
+    <t>-1.1°C</t>
+  </si>
+  <si>
+    <t>-0.8°C</t>
+  </si>
+  <si>
+    <t>-3.9°C</t>
+  </si>
+  <si>
+    <t>-3.4°C</t>
+  </si>
+  <si>
+    <t>-2.4°C</t>
+  </si>
+  <si>
+    <t>-3.5°C</t>
+  </si>
+  <si>
+    <t>-1.9°C</t>
+  </si>
+  <si>
+    <t>-3.0°C</t>
+  </si>
+  <si>
+    <t>0.4°C</t>
+  </si>
+  <si>
+    <t>8.0°C</t>
+  </si>
+  <si>
+    <t>2.5°C</t>
+  </si>
+  <si>
+    <t>-2.1°C</t>
+  </si>
+  <si>
+    <t>9.9°C</t>
+  </si>
+  <si>
+    <t>-1.3°C</t>
+  </si>
+  <si>
+    <t>-1.7°C</t>
+  </si>
+  <si>
+    <t>1.3°C</t>
+  </si>
+  <si>
+    <t>-1.4°C</t>
+  </si>
+  <si>
+    <t>-4.2°C</t>
+  </si>
+  <si>
+    <t>-3.3°C</t>
+  </si>
+  <si>
+    <t>-3.2°C</t>
+  </si>
+  <si>
+    <t>10.0°C</t>
+  </si>
+  <si>
+    <t>7.7°C</t>
+  </si>
+  <si>
+    <t>6.5°C</t>
+  </si>
+  <si>
+    <t>9.8°C</t>
+  </si>
+  <si>
+    <t>-5.9°C</t>
+  </si>
+  <si>
+    <t>Moderada</t>
   </si>
   <si>
     <t>Fraca</t>
   </si>
   <si>
     <t>Forte</t>
-  </si>
-  <si>
-    <t>Moderada</t>
-  </si>
-  <si>
-    <t>Indefinida</t>
   </si>
 </sst>
 </file>
@@ -1799,7 +1796,7 @@
         <v>332</v>
       </c>
       <c r="F3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1819,7 +1816,7 @@
         <v>333</v>
       </c>
       <c r="F4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1839,7 +1836,7 @@
         <v>334</v>
       </c>
       <c r="F5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1859,7 +1856,7 @@
         <v>335</v>
       </c>
       <c r="F6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1879,7 +1876,7 @@
         <v>336</v>
       </c>
       <c r="F7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1899,7 +1896,7 @@
         <v>337</v>
       </c>
       <c r="F8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1919,7 +1916,7 @@
         <v>338</v>
       </c>
       <c r="F9" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1939,7 +1936,7 @@
         <v>337</v>
       </c>
       <c r="F10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1959,7 +1956,7 @@
         <v>339</v>
       </c>
       <c r="F11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1979,7 +1976,7 @@
         <v>340</v>
       </c>
       <c r="F12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1999,7 +1996,7 @@
         <v>341</v>
       </c>
       <c r="F13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2019,7 +2016,7 @@
         <v>339</v>
       </c>
       <c r="F14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2039,7 +2036,7 @@
         <v>342</v>
       </c>
       <c r="F15" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2059,7 +2056,7 @@
         <v>343</v>
       </c>
       <c r="F16" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2079,7 +2076,7 @@
         <v>344</v>
       </c>
       <c r="F17" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2099,7 +2096,7 @@
         <v>344</v>
       </c>
       <c r="F18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2119,7 +2116,7 @@
         <v>340</v>
       </c>
       <c r="F19" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2139,7 +2136,7 @@
         <v>345</v>
       </c>
       <c r="F20" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2159,7 +2156,7 @@
         <v>346</v>
       </c>
       <c r="F21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2179,7 +2176,7 @@
         <v>347</v>
       </c>
       <c r="F22" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2199,7 +2196,7 @@
         <v>348</v>
       </c>
       <c r="F23" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2219,7 +2216,7 @@
         <v>349</v>
       </c>
       <c r="F24" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2239,7 +2236,7 @@
         <v>350</v>
       </c>
       <c r="F25" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2259,7 +2256,7 @@
         <v>351</v>
       </c>
       <c r="F26" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2279,7 +2276,7 @@
         <v>352</v>
       </c>
       <c r="F27" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2299,7 +2296,7 @@
         <v>353</v>
       </c>
       <c r="F28" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2319,7 +2316,7 @@
         <v>354</v>
       </c>
       <c r="F29" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2339,7 +2336,7 @@
         <v>355</v>
       </c>
       <c r="F30" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2359,7 +2356,7 @@
         <v>356</v>
       </c>
       <c r="F31" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2379,7 +2376,7 @@
         <v>357</v>
       </c>
       <c r="F32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2399,7 +2396,7 @@
         <v>358</v>
       </c>
       <c r="F33" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2419,7 +2416,7 @@
         <v>359</v>
       </c>
       <c r="F34" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2439,7 +2436,7 @@
         <v>360</v>
       </c>
       <c r="F35" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2459,7 +2456,7 @@
         <v>343</v>
       </c>
       <c r="F36" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2479,7 +2476,7 @@
         <v>361</v>
       </c>
       <c r="F37" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2499,7 +2496,7 @@
         <v>339</v>
       </c>
       <c r="F38" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2519,7 +2516,7 @@
         <v>362</v>
       </c>
       <c r="F39" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2539,7 +2536,7 @@
         <v>335</v>
       </c>
       <c r="F40" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2559,7 +2556,7 @@
         <v>363</v>
       </c>
       <c r="F41" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2579,7 +2576,7 @@
         <v>355</v>
       </c>
       <c r="F42" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2599,7 +2596,7 @@
         <v>350</v>
       </c>
       <c r="F43" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2619,7 +2616,7 @@
         <v>364</v>
       </c>
       <c r="F44" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2639,7 +2636,7 @@
         <v>365</v>
       </c>
       <c r="F45" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2659,7 +2656,7 @@
         <v>366</v>
       </c>
       <c r="F46" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2679,7 +2676,7 @@
         <v>349</v>
       </c>
       <c r="F47" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2699,7 +2696,7 @@
         <v>337</v>
       </c>
       <c r="F48" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2719,7 +2716,7 @@
         <v>338</v>
       </c>
       <c r="F49" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2739,7 +2736,7 @@
         <v>367</v>
       </c>
       <c r="F50" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2759,7 +2756,7 @@
         <v>368</v>
       </c>
       <c r="F51" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2779,7 +2776,7 @@
         <v>369</v>
       </c>
       <c r="F52" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2799,7 +2796,7 @@
         <v>370</v>
       </c>
       <c r="F53" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2819,7 +2816,7 @@
         <v>371</v>
       </c>
       <c r="F54" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2839,7 +2836,7 @@
         <v>372</v>
       </c>
       <c r="F55" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2859,7 +2856,7 @@
         <v>373</v>
       </c>
       <c r="F56" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2879,7 +2876,7 @@
         <v>356</v>
       </c>
       <c r="F57" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2899,7 +2896,7 @@
         <v>371</v>
       </c>
       <c r="F58" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2919,7 +2916,7 @@
         <v>344</v>
       </c>
       <c r="F59" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2939,7 +2936,7 @@
         <v>345</v>
       </c>
       <c r="F60" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2959,7 +2956,7 @@
         <v>374</v>
       </c>
       <c r="F61" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2979,7 +2976,7 @@
         <v>337</v>
       </c>
       <c r="F62" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2999,7 +2996,7 @@
         <v>375</v>
       </c>
       <c r="F63" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3019,7 +3016,7 @@
         <v>376</v>
       </c>
       <c r="F64" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3039,7 +3036,7 @@
         <v>377</v>
       </c>
       <c r="F65" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3059,7 +3056,7 @@
         <v>376</v>
       </c>
       <c r="F66" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3079,7 +3076,7 @@
         <v>378</v>
       </c>
       <c r="F67" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3099,7 +3096,7 @@
         <v>379</v>
       </c>
       <c r="F68" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3119,7 +3116,7 @@
         <v>374</v>
       </c>
       <c r="F69" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3139,7 +3136,7 @@
         <v>353</v>
       </c>
       <c r="F70" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3159,7 +3156,7 @@
         <v>344</v>
       </c>
       <c r="F71" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3179,7 +3176,7 @@
         <v>370</v>
       </c>
       <c r="F72" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3199,7 +3196,7 @@
         <v>380</v>
       </c>
       <c r="F73" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3219,7 +3216,7 @@
         <v>374</v>
       </c>
       <c r="F74" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3239,7 +3236,7 @@
         <v>361</v>
       </c>
       <c r="F75" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3259,7 +3256,7 @@
         <v>360</v>
       </c>
       <c r="F76" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3279,7 +3276,7 @@
         <v>381</v>
       </c>
       <c r="F77" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3299,7 +3296,7 @@
         <v>382</v>
       </c>
       <c r="F78" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3319,7 +3316,7 @@
         <v>359</v>
       </c>
       <c r="F79" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3339,7 +3336,7 @@
         <v>383</v>
       </c>
       <c r="F80" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3359,7 +3356,7 @@
         <v>384</v>
       </c>
       <c r="F81" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3379,7 +3376,7 @@
         <v>385</v>
       </c>
       <c r="F82" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3399,7 +3396,7 @@
         <v>386</v>
       </c>
       <c r="F83" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3419,7 +3416,7 @@
         <v>334</v>
       </c>
       <c r="F84" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3439,7 +3436,7 @@
         <v>362</v>
       </c>
       <c r="F85" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3459,7 +3456,7 @@
         <v>340</v>
       </c>
       <c r="F86" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3479,7 +3476,7 @@
         <v>387</v>
       </c>
       <c r="F87" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3499,7 +3496,7 @@
         <v>388</v>
       </c>
       <c r="F88" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3519,7 +3516,7 @@
         <v>337</v>
       </c>
       <c r="F89" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3539,7 +3536,7 @@
         <v>348</v>
       </c>
       <c r="F90" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3579,7 +3576,7 @@
         <v>389</v>
       </c>
       <c r="F92" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3599,7 +3596,7 @@
         <v>339</v>
       </c>
       <c r="F93" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3619,7 +3616,7 @@
         <v>359</v>
       </c>
       <c r="F94" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3639,7 +3636,7 @@
         <v>332</v>
       </c>
       <c r="F95" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3659,7 +3656,7 @@
         <v>349</v>
       </c>
       <c r="F96" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3679,7 +3676,7 @@
         <v>390</v>
       </c>
       <c r="F97" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3699,7 +3696,7 @@
         <v>391</v>
       </c>
       <c r="F98" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3719,7 +3716,7 @@
         <v>351</v>
       </c>
       <c r="F99" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3739,7 +3736,7 @@
         <v>392</v>
       </c>
       <c r="F100" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3759,7 +3756,7 @@
         <v>333</v>
       </c>
       <c r="F101" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3779,7 +3776,7 @@
         <v>374</v>
       </c>
       <c r="F102" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3799,7 +3796,7 @@
         <v>344</v>
       </c>
       <c r="F103" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3819,7 +3816,7 @@
         <v>356</v>
       </c>
       <c r="F104" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3839,7 +3836,7 @@
         <v>337</v>
       </c>
       <c r="F105" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3859,7 +3856,7 @@
         <v>393</v>
       </c>
       <c r="F106" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3879,7 +3876,7 @@
         <v>365</v>
       </c>
       <c r="F107" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3899,7 +3896,7 @@
         <v>394</v>
       </c>
       <c r="F108" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3919,7 +3916,7 @@
         <v>341</v>
       </c>
       <c r="F109" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3939,7 +3936,7 @@
         <v>388</v>
       </c>
       <c r="F110" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3959,7 +3956,7 @@
         <v>336</v>
       </c>
       <c r="F111" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3979,7 +3976,7 @@
         <v>348</v>
       </c>
       <c r="F112" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3999,7 +3996,7 @@
         <v>395</v>
       </c>
       <c r="F113" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4019,7 +4016,7 @@
         <v>336</v>
       </c>
       <c r="F114" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4039,7 +4036,7 @@
         <v>396</v>
       </c>
       <c r="F115" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4059,7 +4056,7 @@
         <v>344</v>
       </c>
       <c r="F116" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4079,7 +4076,7 @@
         <v>392</v>
       </c>
       <c r="F117" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4099,7 +4096,7 @@
         <v>358</v>
       </c>
       <c r="F118" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4119,7 +4116,7 @@
         <v>397</v>
       </c>
       <c r="F119" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4139,7 +4136,7 @@
         <v>347</v>
       </c>
       <c r="F120" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4159,7 +4156,7 @@
         <v>332</v>
       </c>
       <c r="F121" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4179,7 +4176,7 @@
         <v>359</v>
       </c>
       <c r="F122" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4199,7 +4196,7 @@
         <v>340</v>
       </c>
       <c r="F123" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4219,7 +4216,7 @@
         <v>398</v>
       </c>
       <c r="F124" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4239,7 +4236,7 @@
         <v>358</v>
       </c>
       <c r="F125" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4259,7 +4256,7 @@
         <v>385</v>
       </c>
       <c r="F126" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4279,7 +4276,7 @@
         <v>399</v>
       </c>
       <c r="F127" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4299,7 +4296,7 @@
         <v>358</v>
       </c>
       <c r="F128" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4319,7 +4316,7 @@
         <v>397</v>
       </c>
       <c r="F129" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4339,7 +4336,7 @@
         <v>379</v>
       </c>
       <c r="F130" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4359,7 +4356,7 @@
         <v>344</v>
       </c>
       <c r="F131" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4379,7 +4376,7 @@
         <v>400</v>
       </c>
       <c r="F132" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4399,7 +4396,7 @@
         <v>334</v>
       </c>
       <c r="F133" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4419,7 +4416,7 @@
         <v>388</v>
       </c>
       <c r="F134" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4439,7 +4436,7 @@
         <v>401</v>
       </c>
       <c r="F135" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4459,7 +4456,7 @@
         <v>366</v>
       </c>
       <c r="F136" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4479,7 +4476,7 @@
         <v>402</v>
       </c>
       <c r="F137" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4499,7 +4496,7 @@
         <v>384</v>
       </c>
       <c r="F138" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4519,7 +4516,7 @@
         <v>384</v>
       </c>
       <c r="F139" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4539,7 +4536,7 @@
         <v>358</v>
       </c>
       <c r="F140" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4559,7 +4556,7 @@
         <v>403</v>
       </c>
       <c r="F141" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4579,7 +4576,7 @@
         <v>404</v>
       </c>
       <c r="F142" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4599,7 +4596,7 @@
         <v>405</v>
       </c>
       <c r="F143" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4619,7 +4616,7 @@
         <v>339</v>
       </c>
       <c r="F144" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4639,7 +4636,7 @@
         <v>406</v>
       </c>
       <c r="F145" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4659,7 +4656,7 @@
         <v>357</v>
       </c>
       <c r="F146" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4679,7 +4676,7 @@
         <v>407</v>
       </c>
       <c r="F147" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4699,7 +4696,7 @@
         <v>354</v>
       </c>
       <c r="F148" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4719,7 +4716,7 @@
         <v>333</v>
       </c>
       <c r="F149" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4739,7 +4736,7 @@
         <v>359</v>
       </c>
       <c r="F150" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4759,7 +4756,7 @@
         <v>337</v>
       </c>
       <c r="F151" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4779,7 +4776,7 @@
         <v>337</v>
       </c>
       <c r="F152" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4799,7 +4796,7 @@
         <v>348</v>
       </c>
       <c r="F153" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4819,7 +4816,7 @@
         <v>408</v>
       </c>
       <c r="F154" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4839,7 +4836,7 @@
         <v>340</v>
       </c>
       <c r="F155" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4859,7 +4856,7 @@
         <v>356</v>
       </c>
       <c r="F156" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4879,7 +4876,7 @@
         <v>403</v>
       </c>
       <c r="F157" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4899,7 +4896,7 @@
         <v>374</v>
       </c>
       <c r="F158" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4919,7 +4916,7 @@
         <v>339</v>
       </c>
       <c r="F159" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4939,7 +4936,7 @@
         <v>371</v>
       </c>
       <c r="F160" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4959,7 +4956,7 @@
         <v>364</v>
       </c>
       <c r="F161" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4979,7 +4976,7 @@
         <v>403</v>
       </c>
       <c r="F162" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4999,7 +4996,7 @@
         <v>409</v>
       </c>
       <c r="F163" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5019,7 +5016,7 @@
         <v>334</v>
       </c>
       <c r="F164" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5039,7 +5036,7 @@
         <v>400</v>
       </c>
       <c r="F165" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5059,7 +5056,7 @@
         <v>351</v>
       </c>
       <c r="F166" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5079,7 +5076,7 @@
         <v>359</v>
       </c>
       <c r="F167" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5099,7 +5096,7 @@
         <v>398</v>
       </c>
       <c r="F168" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5119,7 +5116,7 @@
         <v>410</v>
       </c>
       <c r="F169" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5139,7 +5136,7 @@
         <v>403</v>
       </c>
       <c r="F170" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5159,7 +5156,7 @@
         <v>384</v>
       </c>
       <c r="F171" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5179,7 +5176,7 @@
         <v>367</v>
       </c>
       <c r="F172" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5199,7 +5196,7 @@
         <v>337</v>
       </c>
       <c r="F173" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5219,7 +5216,7 @@
         <v>340</v>
       </c>
       <c r="F174" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5279,7 +5276,7 @@
         <v>354</v>
       </c>
       <c r="F177" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5299,7 +5296,7 @@
         <v>354</v>
       </c>
       <c r="F178" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5319,7 +5316,7 @@
         <v>400</v>
       </c>
       <c r="F179" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5339,7 +5336,7 @@
         <v>358</v>
       </c>
       <c r="F180" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5359,7 +5356,7 @@
         <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5379,7 +5376,7 @@
         <v>349</v>
       </c>
       <c r="F182" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5399,7 +5396,7 @@
         <v>361</v>
       </c>
       <c r="F183" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5419,7 +5416,7 @@
         <v>358</v>
       </c>
       <c r="F184" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5439,7 +5436,7 @@
         <v>360</v>
       </c>
       <c r="F185" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5459,7 +5456,7 @@
         <v>340</v>
       </c>
       <c r="F186" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5479,7 +5476,7 @@
         <v>367</v>
       </c>
       <c r="F187" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5499,7 +5496,7 @@
         <v>406</v>
       </c>
       <c r="F188" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5519,7 +5516,7 @@
         <v>361</v>
       </c>
       <c r="F189" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5539,7 +5536,7 @@
         <v>385</v>
       </c>
       <c r="F190" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5559,7 +5556,7 @@
         <v>405</v>
       </c>
       <c r="F191" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5579,7 +5576,7 @@
         <v>377</v>
       </c>
       <c r="F192" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5599,7 +5596,7 @@
         <v>410</v>
       </c>
       <c r="F193" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5619,7 +5616,7 @@
         <v>361</v>
       </c>
       <c r="F194" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5639,7 +5636,7 @@
         <v>344</v>
       </c>
       <c r="F195" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5659,7 +5656,7 @@
         <v>386</v>
       </c>
       <c r="F196" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5679,7 +5676,7 @@
         <v>411</v>
       </c>
       <c r="F197" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5699,7 +5696,7 @@
         <v>404</v>
       </c>
       <c r="F198" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5719,7 +5716,7 @@
         <v>384</v>
       </c>
       <c r="F199" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5739,7 +5736,7 @@
         <v>408</v>
       </c>
       <c r="F200" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5759,7 +5756,7 @@
         <v>379</v>
       </c>
       <c r="F201" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5779,7 +5776,7 @@
         <v>412</v>
       </c>
       <c r="F202" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5799,7 +5796,7 @@
         <v>363</v>
       </c>
       <c r="F203" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5819,7 +5816,7 @@
         <v>413</v>
       </c>
       <c r="F204" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5839,7 +5836,7 @@
         <v>373</v>
       </c>
       <c r="F205" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5859,7 +5856,7 @@
         <v>408</v>
       </c>
       <c r="F206" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5899,7 +5896,7 @@
         <v>355</v>
       </c>
       <c r="F208" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5919,7 +5916,7 @@
         <v>379</v>
       </c>
       <c r="F209" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5939,7 +5936,7 @@
         <v>332</v>
       </c>
       <c r="F210" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5959,7 +5956,7 @@
         <v>333</v>
       </c>
       <c r="F211" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5979,7 +5976,7 @@
         <v>343</v>
       </c>
       <c r="F212" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5999,7 +5996,7 @@
         <v>355</v>
       </c>
       <c r="F213" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6019,7 +6016,7 @@
         <v>385</v>
       </c>
       <c r="F214" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6039,7 +6036,7 @@
         <v>374</v>
       </c>
       <c r="F215" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6059,7 +6056,7 @@
         <v>374</v>
       </c>
       <c r="F216" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6079,7 +6076,7 @@
         <v>414</v>
       </c>
       <c r="F217" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6099,7 +6096,7 @@
         <v>415</v>
       </c>
       <c r="F218" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6119,7 +6116,7 @@
         <v>385</v>
       </c>
       <c r="F219" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6139,7 +6136,7 @@
         <v>332</v>
       </c>
       <c r="F220" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6179,7 +6176,7 @@
         <v>355</v>
       </c>
       <c r="F222" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6199,7 +6196,7 @@
         <v>358</v>
       </c>
       <c r="F223" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6219,7 +6216,7 @@
         <v>377</v>
       </c>
       <c r="F224" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6239,7 +6236,7 @@
         <v>386</v>
       </c>
       <c r="F225" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6259,7 +6256,7 @@
         <v>360</v>
       </c>
       <c r="F226" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6279,7 +6276,7 @@
         <v>374</v>
       </c>
       <c r="F227" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -6299,7 +6296,7 @@
         <v>403</v>
       </c>
       <c r="F228" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6319,7 +6316,7 @@
         <v>362</v>
       </c>
       <c r="F229" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -6339,7 +6336,7 @@
         <v>416</v>
       </c>
       <c r="F230" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6359,7 +6356,7 @@
         <v>398</v>
       </c>
       <c r="F231" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6379,7 +6376,7 @@
         <v>385</v>
       </c>
       <c r="F232" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6399,7 +6396,7 @@
         <v>339</v>
       </c>
       <c r="F233" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6419,7 +6416,7 @@
         <v>417</v>
       </c>
       <c r="F234" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6439,7 +6436,7 @@
         <v>338</v>
       </c>
       <c r="F235" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6459,7 +6456,7 @@
         <v>379</v>
       </c>
       <c r="F236" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6479,7 +6476,7 @@
         <v>341</v>
       </c>
       <c r="F237" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6499,7 +6496,7 @@
         <v>418</v>
       </c>
       <c r="F238" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6519,7 +6516,7 @@
         <v>360</v>
       </c>
       <c r="F239" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6539,7 +6536,7 @@
         <v>396</v>
       </c>
       <c r="F240" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6559,7 +6556,7 @@
         <v>417</v>
       </c>
       <c r="F241" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6579,7 +6576,7 @@
         <v>382</v>
       </c>
       <c r="F242" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6599,7 +6596,7 @@
         <v>358</v>
       </c>
       <c r="F243" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6619,7 +6616,7 @@
         <v>396</v>
       </c>
       <c r="F244" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6639,7 +6636,7 @@
         <v>386</v>
       </c>
       <c r="F245" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6659,7 +6656,7 @@
         <v>348</v>
       </c>
       <c r="F246" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6679,7 +6676,7 @@
         <v>334</v>
       </c>
       <c r="F247" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6699,7 +6696,7 @@
         <v>403</v>
       </c>
       <c r="F248" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6719,7 +6716,7 @@
         <v>388</v>
       </c>
       <c r="F249" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6739,7 +6736,7 @@
         <v>356</v>
       </c>
       <c r="F250" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6759,7 +6756,7 @@
         <v>345</v>
       </c>
       <c r="F251" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6779,7 +6776,7 @@
         <v>361</v>
       </c>
       <c r="F252" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6799,7 +6796,7 @@
         <v>386</v>
       </c>
       <c r="F253" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6819,7 +6816,7 @@
         <v>349</v>
       </c>
       <c r="F254" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6839,7 +6836,7 @@
         <v>333</v>
       </c>
       <c r="F255" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6859,7 +6856,7 @@
         <v>365</v>
       </c>
       <c r="F256" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6879,7 +6876,7 @@
         <v>348</v>
       </c>
       <c r="F257" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6899,7 +6896,7 @@
         <v>358</v>
       </c>
       <c r="F258" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6919,7 +6916,7 @@
         <v>388</v>
       </c>
       <c r="F259" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6939,7 +6936,7 @@
         <v>419</v>
       </c>
       <c r="F260" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6959,7 +6956,7 @@
         <v>337</v>
       </c>
       <c r="F261" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6979,7 +6976,7 @@
         <v>365</v>
       </c>
       <c r="F262" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6999,7 +6996,7 @@
         <v>373</v>
       </c>
       <c r="F263" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -7019,7 +7016,7 @@
         <v>361</v>
       </c>
       <c r="F264" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -7039,7 +7036,7 @@
         <v>415</v>
       </c>
       <c r="F265" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -7059,7 +7056,7 @@
         <v>360</v>
       </c>
       <c r="F266" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -7079,7 +7076,7 @@
         <v>349</v>
       </c>
       <c r="F267" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -7099,7 +7096,7 @@
         <v>420</v>
       </c>
       <c r="F268" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -7119,7 +7116,7 @@
         <v>336</v>
       </c>
       <c r="F269" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -7139,7 +7136,7 @@
         <v>339</v>
       </c>
       <c r="F270" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -7159,7 +7156,7 @@
         <v>344</v>
       </c>
       <c r="F271" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -7179,7 +7176,7 @@
         <v>421</v>
       </c>
       <c r="F272" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -7199,7 +7196,7 @@
         <v>358</v>
       </c>
       <c r="F273" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -7219,7 +7216,7 @@
         <v>349</v>
       </c>
       <c r="F274" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -7239,7 +7236,7 @@
         <v>422</v>
       </c>
       <c r="F275" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -7259,7 +7256,7 @@
         <v>423</v>
       </c>
       <c r="F276" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -7279,7 +7276,7 @@
         <v>424</v>
       </c>
       <c r="F277" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -7299,7 +7296,7 @@
         <v>398</v>
       </c>
       <c r="F278" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -7319,7 +7316,7 @@
         <v>405</v>
       </c>
       <c r="F279" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -7339,7 +7336,7 @@
         <v>333</v>
       </c>
       <c r="F280" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -7359,7 +7356,7 @@
         <v>406</v>
       </c>
       <c r="F281" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -7379,7 +7376,7 @@
         <v>382</v>
       </c>
       <c r="F282" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -7399,7 +7396,7 @@
         <v>425</v>
       </c>
       <c r="F283" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -7419,7 +7416,7 @@
         <v>405</v>
       </c>
       <c r="F284" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -7439,7 +7436,7 @@
         <v>402</v>
       </c>
       <c r="F285" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -7459,7 +7456,7 @@
         <v>426</v>
       </c>
       <c r="F286" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -7479,7 +7476,7 @@
         <v>426</v>
       </c>
       <c r="F287" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -7499,7 +7496,7 @@
         <v>406</v>
       </c>
       <c r="F288" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -7519,7 +7516,7 @@
         <v>361</v>
       </c>
       <c r="F289" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -7539,7 +7536,7 @@
         <v>397</v>
       </c>
       <c r="F290" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -7559,7 +7556,7 @@
         <v>388</v>
       </c>
       <c r="F291" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -7579,7 +7576,7 @@
         <v>354</v>
       </c>
       <c r="F292" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -7599,7 +7596,7 @@
         <v>405</v>
       </c>
       <c r="F293" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -7619,7 +7616,7 @@
         <v>356</v>
       </c>
       <c r="F294" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -7639,7 +7636,7 @@
         <v>354</v>
       </c>
       <c r="F295" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7659,7 +7656,7 @@
         <v>381</v>
       </c>
       <c r="F296" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7679,7 +7676,7 @@
         <v>371</v>
       </c>
       <c r="F297" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -7699,7 +7696,7 @@
         <v>380</v>
       </c>
       <c r="F298" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7719,7 +7716,7 @@
         <v>427</v>
       </c>
       <c r="F299" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -7739,7 +7736,7 @@
         <v>339</v>
       </c>
       <c r="F300" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7759,7 +7756,7 @@
         <v>347</v>
       </c>
       <c r="F301" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -7779,7 +7776,7 @@
         <v>351</v>
       </c>
       <c r="F302" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -7799,7 +7796,7 @@
         <v>409</v>
       </c>
       <c r="F303" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -7819,7 +7816,7 @@
         <v>343</v>
       </c>
       <c r="F304" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -7839,7 +7836,7 @@
         <v>337</v>
       </c>
       <c r="F305" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -7859,7 +7856,7 @@
         <v>391</v>
       </c>
       <c r="F306" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -7879,7 +7876,7 @@
         <v>334</v>
       </c>
       <c r="F307" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -7899,7 +7896,7 @@
         <v>377</v>
       </c>
       <c r="F308" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -7919,7 +7916,7 @@
         <v>343</v>
       </c>
       <c r="F309" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -7939,7 +7936,7 @@
         <v>415</v>
       </c>
       <c r="F310" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -7959,7 +7956,7 @@
         <v>396</v>
       </c>
       <c r="F311" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -7979,7 +7976,7 @@
         <v>428</v>
       </c>
       <c r="F312" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -7999,7 +7996,7 @@
         <v>429</v>
       </c>
       <c r="F313" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -8019,7 +8016,7 @@
         <v>386</v>
       </c>
       <c r="F314" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -8039,7 +8036,7 @@
         <v>421</v>
       </c>
       <c r="F315" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -8059,7 +8056,7 @@
         <v>430</v>
       </c>
       <c r="F316" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -8099,7 +8096,7 @@
         <v>359</v>
       </c>
       <c r="F318" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -8119,7 +8116,7 @@
         <v>398</v>
       </c>
       <c r="F319" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -8139,7 +8136,7 @@
         <v>431</v>
       </c>
       <c r="F320" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -8159,7 +8156,7 @@
         <v>402</v>
       </c>
       <c r="F321" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -8179,7 +8176,7 @@
         <v>392</v>
       </c>
       <c r="F322" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -8199,7 +8196,7 @@
         <v>366</v>
       </c>
       <c r="F323" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -8219,7 +8216,7 @@
         <v>385</v>
       </c>
       <c r="F324" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -8239,7 +8236,7 @@
         <v>386</v>
       </c>
       <c r="F325" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -8259,7 +8256,7 @@
         <v>353</v>
       </c>
       <c r="F326" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -8279,7 +8276,7 @@
         <v>417</v>
       </c>
       <c r="F327" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -8299,7 +8296,7 @@
         <v>365</v>
       </c>
       <c r="F328" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -8319,7 +8316,7 @@
         <v>405</v>
       </c>
       <c r="F329" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -8339,7 +8336,7 @@
         <v>344</v>
       </c>
       <c r="F330" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -8359,7 +8356,7 @@
         <v>397</v>
       </c>
       <c r="F331" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -8379,7 +8376,7 @@
         <v>418</v>
       </c>
       <c r="F332" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -8399,7 +8396,7 @@
         <v>376</v>
       </c>
       <c r="F333" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -8419,7 +8416,7 @@
         <v>432</v>
       </c>
       <c r="F334" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -8439,7 +8436,7 @@
         <v>334</v>
       </c>
       <c r="F335" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -8459,7 +8456,7 @@
         <v>408</v>
       </c>
       <c r="F336" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -8479,7 +8476,7 @@
         <v>358</v>
       </c>
       <c r="F337" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -8499,7 +8496,7 @@
         <v>365</v>
       </c>
       <c r="F338" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -8539,7 +8536,7 @@
         <v>340</v>
       </c>
       <c r="F340" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -8559,7 +8556,7 @@
         <v>356</v>
       </c>
       <c r="F341" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -8579,7 +8576,7 @@
         <v>381</v>
       </c>
       <c r="F342" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -8599,7 +8596,7 @@
         <v>357</v>
       </c>
       <c r="F343" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -8619,7 +8616,7 @@
         <v>344</v>
       </c>
       <c r="F344" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -8639,7 +8636,7 @@
         <v>349</v>
       </c>
       <c r="F345" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -8659,7 +8656,7 @@
         <v>359</v>
       </c>
       <c r="F346" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -8679,7 +8676,7 @@
         <v>358</v>
       </c>
       <c r="F347" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -8699,7 +8696,7 @@
         <v>424</v>
       </c>
       <c r="F348" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -8719,7 +8716,7 @@
         <v>396</v>
       </c>
       <c r="F349" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -8739,7 +8736,7 @@
         <v>332</v>
       </c>
       <c r="F350" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -8759,7 +8756,7 @@
         <v>406</v>
       </c>
       <c r="F351" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -8779,7 +8776,7 @@
         <v>403</v>
       </c>
       <c r="F352" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -8799,7 +8796,7 @@
         <v>365</v>
       </c>
       <c r="F353" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -8819,7 +8816,7 @@
         <v>397</v>
       </c>
       <c r="F354" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -8839,7 +8836,7 @@
         <v>334</v>
       </c>
       <c r="F355" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -8859,7 +8856,7 @@
         <v>406</v>
       </c>
       <c r="F356" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -8879,7 +8876,7 @@
         <v>426</v>
       </c>
       <c r="F357" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -8899,7 +8896,7 @@
         <v>344</v>
       </c>
       <c r="F358" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -8919,7 +8916,7 @@
         <v>367</v>
       </c>
       <c r="F359" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -8939,7 +8936,7 @@
         <v>397</v>
       </c>
       <c r="F360" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -8959,7 +8956,7 @@
         <v>404</v>
       </c>
       <c r="F361" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -8979,7 +8976,7 @@
         <v>399</v>
       </c>
       <c r="F362" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -8999,7 +8996,7 @@
         <v>357</v>
       </c>
       <c r="F363" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -9019,7 +9016,7 @@
         <v>433</v>
       </c>
       <c r="F364" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -9039,7 +9036,7 @@
         <v>354</v>
       </c>
       <c r="F365" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -9059,7 +9056,7 @@
         <v>403</v>
       </c>
       <c r="F366" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -9079,7 +9076,7 @@
         <v>384</v>
       </c>
       <c r="F367" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -9099,7 +9096,7 @@
         <v>384</v>
       </c>
       <c r="F368" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -9119,7 +9116,7 @@
         <v>339</v>
       </c>
       <c r="F369" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -9139,7 +9136,7 @@
         <v>365</v>
       </c>
       <c r="F370" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -9159,7 +9156,7 @@
         <v>382</v>
       </c>
       <c r="F371" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -9179,7 +9176,7 @@
         <v>379</v>
       </c>
       <c r="F372" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -9199,7 +9196,7 @@
         <v>355</v>
       </c>
       <c r="F373" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -9219,7 +9216,7 @@
         <v>412</v>
       </c>
       <c r="F374" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -9239,7 +9236,7 @@
         <v>412</v>
       </c>
       <c r="F375" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -9259,7 +9256,7 @@
         <v>386</v>
       </c>
       <c r="F376" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -9279,7 +9276,7 @@
         <v>402</v>
       </c>
       <c r="F377" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -9299,7 +9296,7 @@
         <v>381</v>
       </c>
       <c r="F378" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -9319,7 +9316,7 @@
         <v>384</v>
       </c>
       <c r="F379" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -9359,7 +9356,7 @@
         <v>404</v>
       </c>
       <c r="F381" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -9379,7 +9376,7 @@
         <v>434</v>
       </c>
       <c r="F382" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -9399,7 +9396,7 @@
         <v>332</v>
       </c>
       <c r="F383" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -9419,7 +9416,7 @@
         <v>357</v>
       </c>
       <c r="F384" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -9439,7 +9436,7 @@
         <v>344</v>
       </c>
       <c r="F385" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -9459,7 +9456,7 @@
         <v>386</v>
       </c>
       <c r="F386" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -9479,7 +9476,7 @@
         <v>358</v>
       </c>
       <c r="F387" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -9499,7 +9496,7 @@
         <v>358</v>
       </c>
       <c r="F388" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -9519,7 +9516,7 @@
         <v>361</v>
       </c>
       <c r="F389" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -9539,7 +9536,7 @@
         <v>339</v>
       </c>
       <c r="F390" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -9559,7 +9556,7 @@
         <v>434</v>
       </c>
       <c r="F391" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -9579,7 +9576,7 @@
         <v>385</v>
       </c>
       <c r="F392" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -9599,7 +9596,7 @@
         <v>353</v>
       </c>
       <c r="F393" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -9619,7 +9616,7 @@
         <v>385</v>
       </c>
       <c r="F394" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -9639,7 +9636,7 @@
         <v>379</v>
       </c>
       <c r="F395" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -9659,7 +9656,7 @@
         <v>384</v>
       </c>
       <c r="F396" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -9679,7 +9676,7 @@
         <v>426</v>
       </c>
       <c r="F397" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -9699,7 +9696,7 @@
         <v>356</v>
       </c>
       <c r="F398" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -9719,7 +9716,7 @@
         <v>361</v>
       </c>
       <c r="F399" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -9739,7 +9736,7 @@
         <v>403</v>
       </c>
       <c r="F400" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -9759,7 +9756,7 @@
         <v>385</v>
       </c>
       <c r="F401" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -9779,7 +9776,7 @@
         <v>417</v>
       </c>
       <c r="F402" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -9799,7 +9796,7 @@
         <v>332</v>
       </c>
       <c r="F403" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -9819,7 +9816,7 @@
         <v>423</v>
       </c>
       <c r="F404" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -9839,7 +9836,7 @@
         <v>332</v>
       </c>
       <c r="F405" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -9859,7 +9856,7 @@
         <v>358</v>
       </c>
       <c r="F406" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -9879,7 +9876,7 @@
         <v>374</v>
       </c>
       <c r="F407" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -9899,7 +9896,7 @@
         <v>379</v>
       </c>
       <c r="F408" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -9919,7 +9916,7 @@
         <v>359</v>
       </c>
       <c r="F409" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -9939,7 +9936,7 @@
         <v>374</v>
       </c>
       <c r="F410" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -9959,7 +9956,7 @@
         <v>374</v>
       </c>
       <c r="F411" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -9979,7 +9976,7 @@
         <v>349</v>
       </c>
       <c r="F412" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -9999,7 +9996,7 @@
         <v>435</v>
       </c>
       <c r="F413" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -10019,7 +10016,7 @@
         <v>333</v>
       </c>
       <c r="F414" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -10039,7 +10036,7 @@
         <v>333</v>
       </c>
       <c r="F415" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -10059,7 +10056,7 @@
         <v>349</v>
       </c>
       <c r="F416" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -10079,7 +10076,7 @@
         <v>405</v>
       </c>
       <c r="F417" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -10099,7 +10096,7 @@
         <v>383</v>
       </c>
       <c r="F418" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -10119,7 +10116,7 @@
         <v>412</v>
       </c>
       <c r="F419" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -10139,7 +10136,7 @@
         <v>412</v>
       </c>
       <c r="F420" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -10159,7 +10156,7 @@
         <v>341</v>
       </c>
       <c r="F421" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -10179,7 +10176,7 @@
         <v>398</v>
       </c>
       <c r="F422" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -10199,7 +10196,7 @@
         <v>364</v>
       </c>
       <c r="F423" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -10219,7 +10216,7 @@
         <v>392</v>
       </c>
       <c r="F424" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -10239,7 +10236,7 @@
         <v>424</v>
       </c>
       <c r="F425" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -10259,7 +10256,7 @@
         <v>358</v>
       </c>
       <c r="F426" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -10299,7 +10296,7 @@
         <v>404</v>
       </c>
       <c r="F428" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -10319,7 +10316,7 @@
         <v>332</v>
       </c>
       <c r="F429" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -10339,7 +10336,7 @@
         <v>344</v>
       </c>
       <c r="F430" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -10359,7 +10356,7 @@
         <v>340</v>
       </c>
       <c r="F431" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -10379,7 +10376,7 @@
         <v>401</v>
       </c>
       <c r="F432" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -10399,7 +10396,7 @@
         <v>355</v>
       </c>
       <c r="F433" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -10419,7 +10416,7 @@
         <v>385</v>
       </c>
       <c r="F434" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -10439,7 +10436,7 @@
         <v>343</v>
       </c>
       <c r="F435" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -10459,7 +10456,7 @@
         <v>343</v>
       </c>
       <c r="F436" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -10479,7 +10476,7 @@
         <v>354</v>
       </c>
       <c r="F437" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -10499,7 +10496,7 @@
         <v>415</v>
       </c>
       <c r="F438" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -10519,7 +10516,7 @@
         <v>415</v>
       </c>
       <c r="F439" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -10539,7 +10536,7 @@
         <v>355</v>
       </c>
       <c r="F440" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -10559,7 +10556,7 @@
         <v>386</v>
       </c>
       <c r="F441" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -10579,7 +10576,7 @@
         <v>356</v>
       </c>
       <c r="F442" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -10599,7 +10596,7 @@
         <v>392</v>
       </c>
       <c r="F443" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -10619,7 +10616,7 @@
         <v>386</v>
       </c>
       <c r="F444" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -10639,7 +10636,7 @@
         <v>356</v>
       </c>
       <c r="F445" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -10659,7 +10656,7 @@
         <v>344</v>
       </c>
       <c r="F446" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -10679,7 +10676,7 @@
         <v>396</v>
       </c>
       <c r="F447" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -10699,7 +10696,7 @@
         <v>337</v>
       </c>
       <c r="F448" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="449" spans="1:6">
@@ -10719,7 +10716,7 @@
         <v>361</v>
       </c>
       <c r="F449" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -10739,7 +10736,7 @@
         <v>340</v>
       </c>
       <c r="F450" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -10759,7 +10756,7 @@
         <v>347</v>
       </c>
       <c r="F451" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -10779,7 +10776,7 @@
         <v>354</v>
       </c>
       <c r="F452" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -10799,7 +10796,7 @@
         <v>358</v>
       </c>
       <c r="F453" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -10819,7 +10816,7 @@
         <v>404</v>
       </c>
       <c r="F454" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="455" spans="1:6">
@@ -10839,7 +10836,7 @@
         <v>348</v>
       </c>
       <c r="F455" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -10859,7 +10856,7 @@
         <v>382</v>
       </c>
       <c r="F456" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="457" spans="1:6">
@@ -10879,7 +10876,7 @@
         <v>384</v>
       </c>
       <c r="F457" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -10899,7 +10896,7 @@
         <v>432</v>
       </c>
       <c r="F458" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -10919,7 +10916,7 @@
         <v>394</v>
       </c>
       <c r="F459" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -10939,7 +10936,7 @@
         <v>404</v>
       </c>
       <c r="F460" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -10959,7 +10956,7 @@
         <v>391</v>
       </c>
       <c r="F461" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -10979,7 +10976,7 @@
         <v>384</v>
       </c>
       <c r="F462" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -10999,7 +10996,7 @@
         <v>427</v>
       </c>
       <c r="F463" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -11019,7 +11016,7 @@
         <v>356</v>
       </c>
       <c r="F464" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -11039,7 +11036,7 @@
         <v>344</v>
       </c>
       <c r="F465" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -11059,7 +11056,7 @@
         <v>376</v>
       </c>
       <c r="F466" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="467" spans="1:6">
@@ -11079,7 +11076,7 @@
         <v>384</v>
       </c>
       <c r="F467" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="468" spans="1:6">
@@ -11099,7 +11096,7 @@
         <v>339</v>
       </c>
       <c r="F468" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="469" spans="1:6">
@@ -11119,7 +11116,7 @@
         <v>381</v>
       </c>
       <c r="F469" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="470" spans="1:6">
@@ -11139,7 +11136,7 @@
         <v>345</v>
       </c>
       <c r="F470" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="471" spans="1:6">
@@ -11159,7 +11156,7 @@
         <v>412</v>
       </c>
       <c r="F471" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="472" spans="1:6">
@@ -11179,7 +11176,7 @@
         <v>357</v>
       </c>
       <c r="F472" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="473" spans="1:6">
@@ -11199,7 +11196,7 @@
         <v>356</v>
       </c>
       <c r="F473" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="474" spans="1:6">
@@ -11219,7 +11216,7 @@
         <v>337</v>
       </c>
       <c r="F474" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="475" spans="1:6">
@@ -11239,7 +11236,7 @@
         <v>394</v>
       </c>
       <c r="F475" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="476" spans="1:6">
@@ -11279,7 +11276,7 @@
         <v>400</v>
       </c>
       <c r="F477" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="478" spans="1:6">
@@ -11299,7 +11296,7 @@
         <v>357</v>
       </c>
       <c r="F478" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="479" spans="1:6">
@@ -11319,7 +11316,7 @@
         <v>337</v>
       </c>
       <c r="F479" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="480" spans="1:6">
@@ -11339,7 +11336,7 @@
         <v>361</v>
       </c>
       <c r="F480" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -11359,7 +11356,7 @@
         <v>434</v>
       </c>
       <c r="F481" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -11379,7 +11376,7 @@
         <v>358</v>
       </c>
       <c r="F482" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -11399,7 +11396,7 @@
         <v>354</v>
       </c>
       <c r="F483" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="484" spans="1:6">
@@ -11419,7 +11416,7 @@
         <v>344</v>
       </c>
       <c r="F484" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="485" spans="1:6">
@@ -11439,7 +11436,7 @@
         <v>361</v>
       </c>
       <c r="F485" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="486" spans="1:6">
@@ -11459,7 +11456,7 @@
         <v>342</v>
       </c>
       <c r="F486" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -11479,7 +11476,7 @@
         <v>356</v>
       </c>
       <c r="F487" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="488" spans="1:6">
@@ -11499,7 +11496,7 @@
         <v>430</v>
       </c>
       <c r="F488" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -11519,7 +11516,7 @@
         <v>361</v>
       </c>
       <c r="F489" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="490" spans="1:6">
@@ -11539,7 +11536,7 @@
         <v>339</v>
       </c>
       <c r="F490" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -11559,7 +11556,7 @@
         <v>359</v>
       </c>
       <c r="F491" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -11579,7 +11576,7 @@
         <v>359</v>
       </c>
       <c r="F492" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -11599,7 +11596,7 @@
         <v>418</v>
       </c>
       <c r="F493" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -11619,7 +11616,7 @@
         <v>350</v>
       </c>
       <c r="F494" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -11639,7 +11636,7 @@
         <v>434</v>
       </c>
       <c r="F495" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -11659,7 +11656,7 @@
         <v>358</v>
       </c>
       <c r="F496" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="497" spans="1:6">
@@ -11679,7 +11676,7 @@
         <v>371</v>
       </c>
       <c r="F497" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="498" spans="1:6">
@@ -11699,7 +11696,7 @@
         <v>434</v>
       </c>
       <c r="F498" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="499" spans="1:6">
@@ -11719,7 +11716,7 @@
         <v>357</v>
       </c>
       <c r="F499" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="500" spans="1:6">
@@ -11739,7 +11736,7 @@
         <v>365</v>
       </c>
       <c r="F500" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="501" spans="1:6">
@@ -11759,7 +11756,7 @@
         <v>436</v>
       </c>
       <c r="F501" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="502" spans="1:6">
@@ -11779,7 +11776,7 @@
         <v>424</v>
       </c>
       <c r="F502" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="503" spans="1:6">
@@ -11799,7 +11796,7 @@
         <v>399</v>
       </c>
       <c r="F503" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="504" spans="1:6">
@@ -11819,7 +11816,7 @@
         <v>365</v>
       </c>
       <c r="F504" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="505" spans="1:6">
@@ -11839,7 +11836,7 @@
         <v>408</v>
       </c>
       <c r="F505" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="506" spans="1:6">
@@ -11859,7 +11856,7 @@
         <v>379</v>
       </c>
       <c r="F506" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="507" spans="1:6">
@@ -11879,7 +11876,7 @@
         <v>391</v>
       </c>
       <c r="F507" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="508" spans="1:6">
@@ -11899,7 +11896,7 @@
         <v>437</v>
       </c>
       <c r="F508" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="509" spans="1:6">
@@ -11919,7 +11916,7 @@
         <v>391</v>
       </c>
       <c r="F509" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="510" spans="1:6">
@@ -11939,7 +11936,7 @@
         <v>364</v>
       </c>
       <c r="F510" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="511" spans="1:6">
@@ -11959,7 +11956,7 @@
         <v>438</v>
       </c>
       <c r="F511" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="512" spans="1:6">
@@ -11979,7 +11976,7 @@
         <v>334</v>
       </c>
       <c r="F512" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="513" spans="1:6">
@@ -11999,7 +11996,7 @@
         <v>402</v>
       </c>
       <c r="F513" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="514" spans="1:6">
@@ -12019,7 +12016,7 @@
         <v>361</v>
       </c>
       <c r="F514" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="515" spans="1:6">
@@ -12039,7 +12036,7 @@
         <v>381</v>
       </c>
       <c r="F515" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="516" spans="1:6">
@@ -12059,7 +12056,7 @@
         <v>361</v>
       </c>
       <c r="F516" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="517" spans="1:6">
@@ -12079,7 +12076,7 @@
         <v>380</v>
       </c>
       <c r="F517" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="518" spans="1:6">
@@ -12099,7 +12096,7 @@
         <v>357</v>
       </c>
       <c r="F518" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="519" spans="1:6">
@@ -12119,7 +12116,7 @@
         <v>392</v>
       </c>
       <c r="F519" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -12139,7 +12136,7 @@
         <v>357</v>
       </c>
       <c r="F520" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -12159,7 +12156,7 @@
         <v>439</v>
       </c>
       <c r="F521" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -12179,7 +12176,7 @@
         <v>333</v>
       </c>
       <c r="F522" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="523" spans="1:6">
@@ -12199,7 +12196,7 @@
         <v>360</v>
       </c>
       <c r="F523" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -12219,7 +12216,7 @@
         <v>439</v>
       </c>
       <c r="F524" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="525" spans="1:6">
@@ -12239,7 +12236,7 @@
         <v>434</v>
       </c>
       <c r="F525" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -12259,7 +12256,7 @@
         <v>384</v>
       </c>
       <c r="F526" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -12279,7 +12276,7 @@
         <v>405</v>
       </c>
       <c r="F527" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="528" spans="1:6">
@@ -12299,7 +12296,7 @@
         <v>436</v>
       </c>
       <c r="F528" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="529" spans="1:6">
@@ -12319,7 +12316,7 @@
         <v>354</v>
       </c>
       <c r="F529" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="530" spans="1:6">
@@ -12359,7 +12356,7 @@
         <v>415</v>
       </c>
       <c r="F531" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="532" spans="1:6">
@@ -12379,7 +12376,7 @@
         <v>360</v>
       </c>
       <c r="F532" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -12419,7 +12416,7 @@
         <v>389</v>
       </c>
       <c r="F534" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="535" spans="1:6">
@@ -12439,7 +12436,7 @@
         <v>361</v>
       </c>
       <c r="F535" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="536" spans="1:6">
@@ -12459,7 +12456,7 @@
         <v>405</v>
       </c>
       <c r="F536" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="537" spans="1:6">
@@ -12479,7 +12476,7 @@
         <v>406</v>
       </c>
       <c r="F537" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="538" spans="1:6">
@@ -12499,7 +12496,7 @@
         <v>388</v>
       </c>
       <c r="F538" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="539" spans="1:6">
@@ -12519,7 +12516,7 @@
         <v>353</v>
       </c>
       <c r="F539" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="540" spans="1:6">
@@ -12539,7 +12536,7 @@
         <v>385</v>
       </c>
       <c r="F540" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="541" spans="1:6">
@@ -12559,7 +12556,7 @@
         <v>388</v>
       </c>
       <c r="F541" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="542" spans="1:6">
@@ -12579,7 +12576,7 @@
         <v>385</v>
       </c>
       <c r="F542" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="543" spans="1:6">
@@ -12599,7 +12596,7 @@
         <v>423</v>
       </c>
       <c r="F543" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="544" spans="1:6">
@@ -12619,7 +12616,7 @@
         <v>344</v>
       </c>
       <c r="F544" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="545" spans="1:6">
@@ -12639,7 +12636,7 @@
         <v>356</v>
       </c>
       <c r="F545" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="546" spans="1:6">
@@ -12659,7 +12656,7 @@
         <v>339</v>
       </c>
       <c r="F546" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="547" spans="1:6">
@@ -12679,7 +12676,7 @@
         <v>397</v>
       </c>
       <c r="F547" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="548" spans="1:6">
@@ -12699,7 +12696,7 @@
         <v>408</v>
       </c>
       <c r="F548" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -12719,7 +12716,7 @@
         <v>354</v>
       </c>
       <c r="F549" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="550" spans="1:6">
@@ -12739,7 +12736,7 @@
         <v>379</v>
       </c>
       <c r="F550" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -12759,7 +12756,7 @@
         <v>408</v>
       </c>
       <c r="F551" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -12779,7 +12776,7 @@
         <v>405</v>
       </c>
       <c r="F552" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -12799,7 +12796,7 @@
         <v>340</v>
       </c>
       <c r="F553" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -12819,7 +12816,7 @@
         <v>405</v>
       </c>
       <c r="F554" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="555" spans="1:6">
@@ -12839,7 +12836,7 @@
         <v>410</v>
       </c>
       <c r="F555" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="556" spans="1:6">
@@ -12859,7 +12856,7 @@
         <v>392</v>
       </c>
       <c r="F556" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="557" spans="1:6">
@@ -12879,7 +12876,7 @@
         <v>356</v>
       </c>
       <c r="F557" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="558" spans="1:6">
@@ -12899,7 +12896,7 @@
         <v>358</v>
       </c>
       <c r="F558" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -12919,7 +12916,7 @@
         <v>340</v>
       </c>
       <c r="F559" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="560" spans="1:6">
@@ -12939,7 +12936,7 @@
         <v>391</v>
       </c>
       <c r="F560" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="561" spans="1:6">
@@ -12959,7 +12956,7 @@
         <v>333</v>
       </c>
       <c r="F561" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="562" spans="1:6">
@@ -12979,7 +12976,7 @@
         <v>398</v>
       </c>
       <c r="F562" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -12999,7 +12996,7 @@
         <v>405</v>
       </c>
       <c r="F563" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="564" spans="1:6">
@@ -13019,7 +13016,7 @@
         <v>340</v>
       </c>
       <c r="F564" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="565" spans="1:6">
@@ -13039,7 +13036,7 @@
         <v>354</v>
       </c>
       <c r="F565" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="566" spans="1:6">
@@ -13059,7 +13056,7 @@
         <v>440</v>
       </c>
       <c r="F566" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="567" spans="1:6">
@@ -13079,7 +13076,7 @@
         <v>409</v>
       </c>
       <c r="F567" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="568" spans="1:6">
@@ -13099,7 +13096,7 @@
         <v>391</v>
       </c>
       <c r="F568" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="569" spans="1:6">
@@ -13119,7 +13116,7 @@
         <v>436</v>
       </c>
       <c r="F569" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="570" spans="1:6">
@@ -13139,7 +13136,7 @@
         <v>410</v>
       </c>
       <c r="F570" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="571" spans="1:6">
@@ -13159,7 +13156,7 @@
         <v>402</v>
       </c>
       <c r="F571" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="572" spans="1:6">
@@ -13179,7 +13176,7 @@
         <v>371</v>
       </c>
       <c r="F572" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="573" spans="1:6">
@@ -13199,7 +13196,7 @@
         <v>374</v>
       </c>
       <c r="F573" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="574" spans="1:6">
@@ -13219,7 +13216,7 @@
         <v>359</v>
       </c>
       <c r="F574" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -13239,7 +13236,7 @@
         <v>403</v>
       </c>
       <c r="F575" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -13259,7 +13256,7 @@
         <v>385</v>
       </c>
       <c r="F576" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="577" spans="1:6">
@@ -13279,7 +13276,7 @@
         <v>441</v>
       </c>
       <c r="F577" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="578" spans="1:6">
@@ -13299,7 +13296,7 @@
         <v>415</v>
       </c>
       <c r="F578" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="579" spans="1:6">
@@ -13319,7 +13316,7 @@
         <v>361</v>
       </c>
       <c r="F579" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="580" spans="1:6">
@@ -13339,7 +13336,7 @@
         <v>342</v>
       </c>
       <c r="F580" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="581" spans="1:6">
@@ -13359,7 +13356,7 @@
         <v>358</v>
       </c>
       <c r="F581" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -13379,7 +13376,7 @@
         <v>403</v>
       </c>
       <c r="F582" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="583" spans="1:6">
@@ -13399,7 +13396,7 @@
         <v>384</v>
       </c>
       <c r="F583" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -13419,7 +13416,7 @@
         <v>358</v>
       </c>
       <c r="F584" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="585" spans="1:6">
@@ -13439,7 +13436,7 @@
         <v>360</v>
       </c>
       <c r="F585" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -13459,7 +13456,7 @@
         <v>386</v>
       </c>
       <c r="F586" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="587" spans="1:6">
@@ -13479,7 +13476,7 @@
         <v>360</v>
       </c>
       <c r="F587" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -13499,7 +13496,7 @@
         <v>393</v>
       </c>
       <c r="F588" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -13539,7 +13536,7 @@
         <v>442</v>
       </c>
       <c r="F590" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="591" spans="1:6">
@@ -13559,7 +13556,7 @@
         <v>443</v>
       </c>
       <c r="F591" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="592" spans="1:6">
@@ -13579,7 +13576,7 @@
         <v>429</v>
       </c>
       <c r="F592" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="593" spans="1:6">
@@ -13599,7 +13596,7 @@
         <v>359</v>
       </c>
       <c r="F593" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="594" spans="1:6">
@@ -13619,7 +13616,7 @@
         <v>376</v>
       </c>
       <c r="F594" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="595" spans="1:6">
@@ -13639,7 +13636,7 @@
         <v>386</v>
       </c>
       <c r="F595" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="596" spans="1:6">
@@ -13659,7 +13656,7 @@
         <v>334</v>
       </c>
       <c r="F596" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="597" spans="1:6">
@@ -13679,7 +13676,7 @@
         <v>368</v>
       </c>
       <c r="F597" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="598" spans="1:6">
@@ -13699,7 +13696,7 @@
         <v>444</v>
       </c>
       <c r="F598" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="599" spans="1:6">
@@ -13719,7 +13716,7 @@
         <v>334</v>
       </c>
       <c r="F599" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="600" spans="1:6">
@@ -13739,7 +13736,7 @@
         <v>341</v>
       </c>
       <c r="F600" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="601" spans="1:6">
@@ -13759,7 +13756,7 @@
         <v>357</v>
       </c>
       <c r="F601" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="602" spans="1:6">
@@ -13779,7 +13776,7 @@
         <v>427</v>
       </c>
       <c r="F602" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="603" spans="1:6">
@@ -13799,7 +13796,7 @@
         <v>358</v>
       </c>
       <c r="F603" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="604" spans="1:6">
@@ -13819,7 +13816,7 @@
         <v>358</v>
       </c>
       <c r="F604" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="605" spans="1:6">
@@ -13839,7 +13836,7 @@
         <v>357</v>
       </c>
       <c r="F605" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="606" spans="1:6">
@@ -13859,7 +13856,7 @@
         <v>348</v>
       </c>
       <c r="F606" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="607" spans="1:6">
@@ -13879,7 +13876,7 @@
         <v>436</v>
       </c>
       <c r="F607" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="608" spans="1:6">
@@ -13899,7 +13896,7 @@
         <v>395</v>
       </c>
       <c r="F608" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="609" spans="1:6">
@@ -13919,7 +13916,7 @@
         <v>384</v>
       </c>
       <c r="F609" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="610" spans="1:6">
@@ -13939,7 +13936,7 @@
         <v>428</v>
       </c>
       <c r="F610" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="611" spans="1:6">
@@ -13959,7 +13956,7 @@
         <v>429</v>
       </c>
       <c r="F611" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="612" spans="1:6">
@@ -13979,7 +13976,7 @@
         <v>409</v>
       </c>
       <c r="F612" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="613" spans="1:6">
@@ -13999,7 +13996,7 @@
         <v>347</v>
       </c>
       <c r="F613" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="614" spans="1:6">
@@ -14019,7 +14016,7 @@
         <v>403</v>
       </c>
       <c r="F614" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="615" spans="1:6">
@@ -14039,7 +14036,7 @@
         <v>437</v>
       </c>
       <c r="F615" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="616" spans="1:6">
@@ -14059,7 +14056,7 @@
         <v>444</v>
       </c>
       <c r="F616" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="617" spans="1:6">
@@ -14079,7 +14076,7 @@
         <v>427</v>
       </c>
       <c r="F617" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="618" spans="1:6">
@@ -14099,7 +14096,7 @@
         <v>367</v>
       </c>
       <c r="F618" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="619" spans="1:6">
@@ -14119,7 +14116,7 @@
         <v>361</v>
       </c>
       <c r="F619" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="620" spans="1:6">
@@ -14139,7 +14136,7 @@
         <v>359</v>
       </c>
       <c r="F620" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="621" spans="1:6">
@@ -14159,7 +14156,7 @@
         <v>359</v>
       </c>
       <c r="F621" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="622" spans="1:6">
@@ -14179,7 +14176,7 @@
         <v>381</v>
       </c>
       <c r="F622" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="623" spans="1:6">
@@ -14199,7 +14196,7 @@
         <v>445</v>
       </c>
       <c r="F623" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="624" spans="1:6">
@@ -14219,7 +14216,7 @@
         <v>380</v>
       </c>
       <c r="F624" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="625" spans="1:6">
@@ -14239,7 +14236,7 @@
         <v>391</v>
       </c>
       <c r="F625" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="626" spans="1:6">
@@ -14259,7 +14256,7 @@
         <v>413</v>
       </c>
       <c r="F626" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="627" spans="1:6">
@@ -14279,7 +14276,7 @@
         <v>424</v>
       </c>
       <c r="F627" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="628" spans="1:6">
@@ -14299,7 +14296,7 @@
         <v>424</v>
       </c>
       <c r="F628" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="629" spans="1:6">
@@ -14319,7 +14316,7 @@
         <v>332</v>
       </c>
       <c r="F629" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="630" spans="1:6">
@@ -14339,7 +14336,7 @@
         <v>410</v>
       </c>
       <c r="F630" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="631" spans="1:6">
@@ -14359,7 +14356,7 @@
         <v>333</v>
       </c>
       <c r="F631" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="632" spans="1:6">
@@ -14379,7 +14376,7 @@
         <v>349</v>
       </c>
       <c r="F632" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="633" spans="1:6">
@@ -14399,7 +14396,7 @@
         <v>396</v>
       </c>
       <c r="F633" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="634" spans="1:6">
@@ -14419,7 +14416,7 @@
         <v>344</v>
       </c>
       <c r="F634" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="635" spans="1:6">
@@ -14459,7 +14456,7 @@
         <v>377</v>
       </c>
       <c r="F636" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="637" spans="1:6">
@@ -14479,7 +14476,7 @@
         <v>367</v>
       </c>
       <c r="F637" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="638" spans="1:6">
@@ -14499,7 +14496,7 @@
         <v>432</v>
       </c>
       <c r="F638" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="639" spans="1:6">
@@ -14519,7 +14516,7 @@
         <v>384</v>
       </c>
       <c r="F639" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="640" spans="1:6">
@@ -14539,7 +14536,7 @@
         <v>357</v>
       </c>
       <c r="F640" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="641" spans="1:6">
@@ -14559,7 +14556,7 @@
         <v>337</v>
       </c>
       <c r="F641" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="642" spans="1:6">
@@ -14579,7 +14576,7 @@
         <v>354</v>
       </c>
       <c r="F642" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="643" spans="1:6">
@@ -14599,7 +14596,7 @@
         <v>379</v>
       </c>
       <c r="F643" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="644" spans="1:6">
@@ -14619,7 +14616,7 @@
         <v>415</v>
       </c>
       <c r="F644" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="645" spans="1:6">
@@ -14639,7 +14636,7 @@
         <v>394</v>
       </c>
       <c r="F645" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="646" spans="1:6">
@@ -14659,7 +14656,7 @@
         <v>360</v>
       </c>
       <c r="F646" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="647" spans="1:6">
@@ -14679,7 +14676,7 @@
         <v>360</v>
       </c>
       <c r="F647" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="648" spans="1:6">
@@ -14699,7 +14696,7 @@
         <v>434</v>
       </c>
       <c r="F648" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="649" spans="1:6">
@@ -14719,7 +14716,7 @@
         <v>343</v>
       </c>
       <c r="F649" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="650" spans="1:6">
@@ -14739,7 +14736,7 @@
         <v>397</v>
       </c>
       <c r="F650" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="651" spans="1:6">
@@ -14759,7 +14756,7 @@
         <v>347</v>
       </c>
       <c r="F651" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="652" spans="1:6">
@@ -14779,7 +14776,7 @@
         <v>417</v>
       </c>
       <c r="F652" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="653" spans="1:6">
@@ -14799,7 +14796,7 @@
         <v>344</v>
       </c>
       <c r="F653" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="654" spans="1:6">
@@ -14819,7 +14816,7 @@
         <v>365</v>
       </c>
       <c r="F654" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="655" spans="1:6">
@@ -14839,7 +14836,7 @@
         <v>334</v>
       </c>
       <c r="F655" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="656" spans="1:6">
@@ -14859,7 +14856,7 @@
         <v>377</v>
       </c>
       <c r="F656" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="657" spans="1:6">
@@ -14879,7 +14876,7 @@
         <v>333</v>
       </c>
       <c r="F657" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="658" spans="1:6">
@@ -14899,7 +14896,7 @@
         <v>436</v>
       </c>
       <c r="F658" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="659" spans="1:6">
@@ -14919,7 +14916,7 @@
         <v>415</v>
       </c>
       <c r="F659" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="660" spans="1:6">
@@ -14939,7 +14936,7 @@
         <v>403</v>
       </c>
       <c r="F660" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="661" spans="1:6">
@@ -14959,7 +14956,7 @@
         <v>356</v>
       </c>
       <c r="F661" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="662" spans="1:6">
@@ -14979,7 +14976,7 @@
         <v>368</v>
       </c>
       <c r="F662" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="663" spans="1:6">
@@ -14999,7 +14996,7 @@
         <v>339</v>
       </c>
       <c r="F663" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="664" spans="1:6">
@@ -15019,7 +15016,7 @@
         <v>357</v>
       </c>
       <c r="F664" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="665" spans="1:6">
@@ -15039,7 +15036,7 @@
         <v>338</v>
       </c>
       <c r="F665" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="666" spans="1:6">
@@ -15059,7 +15056,7 @@
         <v>340</v>
       </c>
       <c r="F666" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="667" spans="1:6">
@@ -15079,7 +15076,7 @@
         <v>338</v>
       </c>
       <c r="F667" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="668" spans="1:6">
@@ -15099,7 +15096,7 @@
         <v>382</v>
       </c>
       <c r="F668" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="669" spans="1:6">
@@ -15119,7 +15116,7 @@
         <v>339</v>
       </c>
       <c r="F669" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="670" spans="1:6">
@@ -15139,7 +15136,7 @@
         <v>402</v>
       </c>
       <c r="F670" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="671" spans="1:6">
@@ -15159,7 +15156,7 @@
         <v>419</v>
       </c>
       <c r="F671" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="672" spans="1:6">
@@ -15179,7 +15176,7 @@
         <v>446</v>
       </c>
       <c r="F672" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="673" spans="1:6">
@@ -15199,7 +15196,7 @@
         <v>386</v>
       </c>
       <c r="F673" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="674" spans="1:6">
@@ -15219,7 +15216,7 @@
         <v>403</v>
       </c>
       <c r="F674" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="675" spans="1:6">
@@ -15239,7 +15236,7 @@
         <v>386</v>
       </c>
       <c r="F675" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="676" spans="1:6">
@@ -15259,7 +15256,7 @@
         <v>337</v>
       </c>
       <c r="F676" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="677" spans="1:6">
@@ -15279,7 +15276,7 @@
         <v>396</v>
       </c>
       <c r="F677" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="678" spans="1:6">
@@ -15299,7 +15296,7 @@
         <v>332</v>
       </c>
       <c r="F678" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="679" spans="1:6">
@@ -15319,7 +15316,7 @@
         <v>338</v>
       </c>
       <c r="F679" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="680" spans="1:6">
@@ -15339,7 +15336,7 @@
         <v>356</v>
       </c>
       <c r="F680" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="681" spans="1:6">
@@ -15359,7 +15356,7 @@
         <v>374</v>
       </c>
       <c r="F681" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="682" spans="1:6">
@@ -15379,7 +15376,7 @@
         <v>344</v>
       </c>
       <c r="F682" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="683" spans="1:6">
@@ -15399,7 +15396,7 @@
         <v>388</v>
       </c>
       <c r="F683" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="684" spans="1:6">
@@ -15419,7 +15416,7 @@
         <v>447</v>
       </c>
       <c r="F684" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="685" spans="1:6">
@@ -15439,7 +15436,7 @@
         <v>359</v>
       </c>
       <c r="F685" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="686" spans="1:6">
@@ -15459,7 +15456,7 @@
         <v>360</v>
       </c>
       <c r="F686" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="687" spans="1:6">
@@ -15479,7 +15476,7 @@
         <v>339</v>
       </c>
       <c r="F687" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="688" spans="1:6">
@@ -15499,7 +15496,7 @@
         <v>418</v>
       </c>
       <c r="F688" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="689" spans="1:6">
@@ -15519,7 +15516,7 @@
         <v>388</v>
       </c>
       <c r="F689" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="690" spans="1:6">
@@ -15539,7 +15536,7 @@
         <v>406</v>
       </c>
       <c r="F690" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="691" spans="1:6">
@@ -15559,7 +15556,7 @@
         <v>360</v>
       </c>
       <c r="F691" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="692" spans="1:6">
@@ -15579,7 +15576,7 @@
         <v>360</v>
       </c>
       <c r="F692" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="693" spans="1:6">
@@ -15599,7 +15596,7 @@
         <v>400</v>
       </c>
       <c r="F693" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="694" spans="1:6">
@@ -15619,7 +15616,7 @@
         <v>427</v>
       </c>
       <c r="F694" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="695" spans="1:6">
@@ -15639,7 +15636,7 @@
         <v>343</v>
       </c>
       <c r="F695" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="696" spans="1:6">
@@ -15659,7 +15656,7 @@
         <v>434</v>
       </c>
       <c r="F696" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="697" spans="1:6">
@@ -15679,7 +15676,7 @@
         <v>394</v>
       </c>
       <c r="F697" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="698" spans="1:6">
@@ -15699,7 +15696,7 @@
         <v>356</v>
       </c>
       <c r="F698" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="699" spans="1:6">
@@ -15719,7 +15716,7 @@
         <v>427</v>
       </c>
       <c r="F699" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="700" spans="1:6">
@@ -15739,7 +15736,7 @@
         <v>345</v>
       </c>
       <c r="F700" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="701" spans="1:6">
@@ -15759,7 +15756,7 @@
         <v>361</v>
       </c>
       <c r="F701" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="702" spans="1:6">
@@ -15779,7 +15776,7 @@
         <v>397</v>
       </c>
       <c r="F702" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="703" spans="1:6">
@@ -15799,7 +15796,7 @@
         <v>441</v>
       </c>
       <c r="F703" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="704" spans="1:6">
@@ -15819,7 +15816,7 @@
         <v>346</v>
       </c>
       <c r="F704" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="705" spans="1:6">
@@ -15839,7 +15836,7 @@
         <v>369</v>
       </c>
       <c r="F705" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="706" spans="1:6">
@@ -15859,7 +15856,7 @@
         <v>442</v>
       </c>
       <c r="F706" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="707" spans="1:6">
@@ -15879,7 +15876,7 @@
         <v>336</v>
       </c>
       <c r="F707" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="708" spans="1:6">
@@ -15899,7 +15896,7 @@
         <v>338</v>
       </c>
       <c r="F708" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="709" spans="1:6">
@@ -15919,7 +15916,7 @@
         <v>415</v>
       </c>
       <c r="F709" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="710" spans="1:6">
@@ -15939,7 +15936,7 @@
         <v>356</v>
       </c>
       <c r="F710" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="711" spans="1:6">
@@ -15979,7 +15976,7 @@
         <v>359</v>
       </c>
       <c r="F712" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="713" spans="1:6">
@@ -15999,7 +15996,7 @@
         <v>398</v>
       </c>
       <c r="F713" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="714" spans="1:6">
@@ -16019,7 +16016,7 @@
         <v>340</v>
       </c>
       <c r="F714" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="715" spans="1:6">
@@ -16039,7 +16036,7 @@
         <v>348</v>
       </c>
       <c r="F715" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="716" spans="1:6">
@@ -16059,7 +16056,7 @@
         <v>356</v>
       </c>
       <c r="F716" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="717" spans="1:6">
@@ -16079,7 +16076,7 @@
         <v>350</v>
       </c>
       <c r="F717" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="718" spans="1:6">
@@ -16099,7 +16096,7 @@
         <v>355</v>
       </c>
       <c r="F718" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="719" spans="1:6">
@@ -16119,7 +16116,7 @@
         <v>417</v>
       </c>
       <c r="F719" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="720" spans="1:6">
@@ -16139,7 +16136,7 @@
         <v>397</v>
       </c>
       <c r="F720" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="721" spans="1:6">
@@ -16159,7 +16156,7 @@
         <v>393</v>
       </c>
       <c r="F721" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="722" spans="1:6">
@@ -16179,7 +16176,7 @@
         <v>386</v>
       </c>
       <c r="F722" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="723" spans="1:6">
@@ -16199,7 +16196,7 @@
         <v>350</v>
       </c>
       <c r="F723" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="724" spans="1:6">
@@ -16219,7 +16216,7 @@
         <v>435</v>
       </c>
       <c r="F724" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="725" spans="1:6">
@@ -16239,7 +16236,7 @@
         <v>341</v>
       </c>
       <c r="F725" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="726" spans="1:6">
@@ -16259,7 +16256,7 @@
         <v>358</v>
       </c>
       <c r="F726" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="727" spans="1:6">
@@ -16279,7 +16276,7 @@
         <v>397</v>
       </c>
       <c r="F727" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="728" spans="1:6">
@@ -16299,7 +16296,7 @@
         <v>441</v>
       </c>
       <c r="F728" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="729" spans="1:6">
@@ -16319,7 +16316,7 @@
         <v>377</v>
       </c>
       <c r="F729" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="730" spans="1:6">
@@ -16339,7 +16336,7 @@
         <v>374</v>
       </c>
       <c r="F730" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="731" spans="1:6">
@@ -16359,7 +16356,7 @@
         <v>344</v>
       </c>
       <c r="F731" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="732" spans="1:6">
@@ -16379,7 +16376,7 @@
         <v>386</v>
       </c>
       <c r="F732" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="733" spans="1:6">
@@ -16399,7 +16396,7 @@
         <v>386</v>
       </c>
       <c r="F733" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="734" spans="1:6">
@@ -16419,7 +16416,7 @@
         <v>344</v>
       </c>
       <c r="F734" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="735" spans="1:6">
@@ -16439,7 +16436,7 @@
         <v>337</v>
       </c>
       <c r="F735" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="736" spans="1:6">
@@ -16459,7 +16456,7 @@
         <v>397</v>
       </c>
       <c r="F736" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="737" spans="1:6">
@@ -16479,7 +16476,7 @@
         <v>333</v>
       </c>
       <c r="F737" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="738" spans="1:6">
@@ -16499,7 +16496,7 @@
         <v>374</v>
       </c>
       <c r="F738" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="739" spans="1:6">
@@ -16519,7 +16516,7 @@
         <v>417</v>
       </c>
       <c r="F739" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="740" spans="1:6">
@@ -16539,7 +16536,7 @@
         <v>448</v>
       </c>
       <c r="F740" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="741" spans="1:6">
@@ -16559,7 +16556,7 @@
         <v>365</v>
       </c>
       <c r="F741" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="742" spans="1:6">
@@ -16579,7 +16576,7 @@
         <v>385</v>
       </c>
       <c r="F742" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="743" spans="1:6">
@@ -16599,7 +16596,7 @@
         <v>417</v>
       </c>
       <c r="F743" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="744" spans="1:6">
@@ -16619,7 +16616,7 @@
         <v>418</v>
       </c>
       <c r="F744" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="745" spans="1:6">
@@ -16639,7 +16636,7 @@
         <v>405</v>
       </c>
       <c r="F745" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="746" spans="1:6">
@@ -16659,7 +16656,7 @@
         <v>418</v>
       </c>
       <c r="F746" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="747" spans="1:6">
@@ -16679,7 +16676,7 @@
         <v>344</v>
       </c>
       <c r="F747" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="748" spans="1:6">
@@ -16699,7 +16696,7 @@
         <v>358</v>
       </c>
       <c r="F748" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="749" spans="1:6">
@@ -16719,7 +16716,7 @@
         <v>353</v>
       </c>
       <c r="F749" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="750" spans="1:6">
@@ -16739,7 +16736,7 @@
         <v>405</v>
       </c>
       <c r="F750" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="751" spans="1:6">
@@ -16759,7 +16756,7 @@
         <v>339</v>
       </c>
       <c r="F751" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="752" spans="1:6">
@@ -16799,7 +16796,7 @@
         <v>373</v>
       </c>
       <c r="F753" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="754" spans="1:6">
@@ -16819,7 +16816,7 @@
         <v>449</v>
       </c>
       <c r="F754" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="755" spans="1:6">
@@ -16839,7 +16836,7 @@
         <v>376</v>
       </c>
       <c r="F755" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="756" spans="1:6">
@@ -16859,7 +16856,7 @@
         <v>442</v>
       </c>
       <c r="F756" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="757" spans="1:6">
@@ -16879,7 +16876,7 @@
         <v>354</v>
       </c>
       <c r="F757" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="758" spans="1:6">
@@ -16899,7 +16896,7 @@
         <v>360</v>
       </c>
       <c r="F758" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="759" spans="1:6">
@@ -16919,7 +16916,7 @@
         <v>374</v>
       </c>
       <c r="F759" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="760" spans="1:6">
@@ -16939,7 +16936,7 @@
         <v>337</v>
       </c>
       <c r="F760" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="761" spans="1:6">
@@ -16959,7 +16956,7 @@
         <v>357</v>
       </c>
       <c r="F761" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="762" spans="1:6">
@@ -16979,7 +16976,7 @@
         <v>442</v>
       </c>
       <c r="F762" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="763" spans="1:6">
@@ -16999,7 +16996,7 @@
         <v>399</v>
       </c>
       <c r="F763" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="764" spans="1:6">
@@ -17019,7 +17016,7 @@
         <v>377</v>
       </c>
       <c r="F764" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="765" spans="1:6">
@@ -17039,7 +17036,7 @@
         <v>434</v>
       </c>
       <c r="F765" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="766" spans="1:6">
@@ -17059,7 +17056,7 @@
         <v>384</v>
       </c>
       <c r="F766" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="767" spans="1:6">
@@ -17079,7 +17076,7 @@
         <v>345</v>
       </c>
       <c r="F767" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="768" spans="1:6">
@@ -17099,7 +17096,7 @@
         <v>338</v>
       </c>
       <c r="F768" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="769" spans="1:6">
@@ -17119,7 +17116,7 @@
         <v>338</v>
       </c>
       <c r="F769" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="770" spans="1:6">
@@ -17139,7 +17136,7 @@
         <v>385</v>
       </c>
       <c r="F770" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="771" spans="1:6">
@@ -17179,7 +17176,7 @@
         <v>337</v>
       </c>
       <c r="F772" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="773" spans="1:6">
@@ -17199,7 +17196,7 @@
         <v>386</v>
       </c>
       <c r="F773" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="774" spans="1:6">
@@ -17219,7 +17216,7 @@
         <v>347</v>
       </c>
       <c r="F774" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="775" spans="1:6">
@@ -17239,7 +17236,7 @@
         <v>350</v>
       </c>
       <c r="F775" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="776" spans="1:6">
@@ -17259,7 +17256,7 @@
         <v>350</v>
       </c>
       <c r="F776" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="777" spans="1:6">
@@ -17279,7 +17276,7 @@
         <v>340</v>
       </c>
       <c r="F777" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="778" spans="1:6">
@@ -17299,7 +17296,7 @@
         <v>351</v>
       </c>
       <c r="F778" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="779" spans="1:6">
@@ -17319,7 +17316,7 @@
         <v>360</v>
       </c>
       <c r="F779" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="780" spans="1:6">
@@ -17359,7 +17356,7 @@
         <v>338</v>
       </c>
       <c r="F781" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="782" spans="1:6">
@@ -17379,7 +17376,7 @@
         <v>348</v>
       </c>
       <c r="F782" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="783" spans="1:6">
@@ -17399,7 +17396,7 @@
         <v>361</v>
       </c>
       <c r="F783" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="784" spans="1:6">
@@ -17419,7 +17416,7 @@
         <v>404</v>
       </c>
       <c r="F784" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="785" spans="1:6">
@@ -17439,7 +17436,7 @@
         <v>397</v>
       </c>
       <c r="F785" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="786" spans="1:6">
@@ -17459,7 +17456,7 @@
         <v>345</v>
       </c>
       <c r="F786" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="787" spans="1:6">
@@ -17479,7 +17476,7 @@
         <v>415</v>
       </c>
       <c r="F787" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="788" spans="1:6">
@@ -17519,7 +17516,7 @@
         <v>359</v>
       </c>
       <c r="F789" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="790" spans="1:6">
@@ -17539,7 +17536,7 @@
         <v>333</v>
       </c>
       <c r="F790" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="791" spans="1:6">
@@ -17559,7 +17556,7 @@
         <v>333</v>
       </c>
       <c r="F791" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="792" spans="1:6">
@@ -17579,7 +17576,7 @@
         <v>400</v>
       </c>
       <c r="F792" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="793" spans="1:6">
@@ -17599,7 +17596,7 @@
         <v>333</v>
       </c>
       <c r="F793" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="794" spans="1:6">
@@ -17619,7 +17616,7 @@
         <v>342</v>
       </c>
       <c r="F794" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="795" spans="1:6">
@@ -17639,7 +17636,7 @@
         <v>373</v>
       </c>
       <c r="F795" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="796" spans="1:6">
@@ -17659,7 +17656,7 @@
         <v>374</v>
       </c>
       <c r="F796" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="797" spans="1:6">
@@ -17679,7 +17676,7 @@
         <v>383</v>
       </c>
       <c r="F797" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="798" spans="1:6">
@@ -17699,7 +17696,7 @@
         <v>339</v>
       </c>
       <c r="F798" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="799" spans="1:6">
@@ -17719,7 +17716,7 @@
         <v>365</v>
       </c>
       <c r="F799" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="800" spans="1:6">
@@ -17739,7 +17736,7 @@
         <v>427</v>
       </c>
       <c r="F800" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="801" spans="1:6">
@@ -17759,7 +17756,7 @@
         <v>396</v>
       </c>
       <c r="F801" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="802" spans="1:6">
@@ -17799,7 +17796,7 @@
         <v>394</v>
       </c>
       <c r="F803" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="804" spans="1:6">
@@ -17819,7 +17816,7 @@
         <v>342</v>
       </c>
       <c r="F804" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="805" spans="1:6">
@@ -17839,7 +17836,7 @@
         <v>354</v>
       </c>
       <c r="F805" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="806" spans="1:6">
@@ -17859,7 +17856,7 @@
         <v>337</v>
       </c>
       <c r="F806" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="807" spans="1:6">
@@ -17879,7 +17876,7 @@
         <v>379</v>
       </c>
       <c r="F807" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="808" spans="1:6">
@@ -17899,7 +17896,7 @@
         <v>338</v>
       </c>
       <c r="F808" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="809" spans="1:6">
@@ -17919,7 +17916,7 @@
         <v>338</v>
       </c>
       <c r="F809" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="810" spans="1:6">
@@ -17939,7 +17936,7 @@
         <v>349</v>
       </c>
       <c r="F810" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="811" spans="1:6">
@@ -17959,7 +17956,7 @@
         <v>339</v>
       </c>
       <c r="F811" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="812" spans="1:6">
@@ -17979,7 +17976,7 @@
         <v>405</v>
       </c>
       <c r="F812" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="813" spans="1:6">
@@ -17999,7 +17996,7 @@
         <v>333</v>
       </c>
       <c r="F813" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="814" spans="1:6">
@@ -18019,7 +18016,7 @@
         <v>355</v>
       </c>
       <c r="F814" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="815" spans="1:6">
@@ -18039,7 +18036,7 @@
         <v>415</v>
       </c>
       <c r="F815" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="816" spans="1:6">
@@ -18059,7 +18056,7 @@
         <v>344</v>
       </c>
       <c r="F816" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="817" spans="1:6">
@@ -18079,7 +18076,7 @@
         <v>361</v>
       </c>
       <c r="F817" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="818" spans="1:6">
@@ -18099,7 +18096,7 @@
         <v>400</v>
       </c>
       <c r="F818" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="819" spans="1:6">
@@ -18119,7 +18116,7 @@
         <v>402</v>
       </c>
       <c r="F819" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="820" spans="1:6">
@@ -18139,7 +18136,7 @@
         <v>357</v>
       </c>
       <c r="F820" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="821" spans="1:6">
@@ -18159,7 +18156,7 @@
         <v>396</v>
       </c>
       <c r="F821" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="822" spans="1:6">
@@ -18179,7 +18176,7 @@
         <v>374</v>
       </c>
       <c r="F822" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="823" spans="1:6">
@@ -18199,7 +18196,7 @@
         <v>339</v>
       </c>
       <c r="F823" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="824" spans="1:6">
@@ -18219,7 +18216,7 @@
         <v>338</v>
       </c>
       <c r="F824" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="825" spans="1:6">
@@ -18239,7 +18236,7 @@
         <v>434</v>
       </c>
       <c r="F825" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="826" spans="1:6">
@@ -18259,7 +18256,7 @@
         <v>344</v>
       </c>
       <c r="F826" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="827" spans="1:6">
@@ -18279,7 +18276,7 @@
         <v>347</v>
       </c>
       <c r="F827" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="828" spans="1:6">
@@ -18299,7 +18296,7 @@
         <v>361</v>
       </c>
       <c r="F828" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="829" spans="1:6">
@@ -18319,7 +18316,7 @@
         <v>382</v>
       </c>
       <c r="F829" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="830" spans="1:6">
@@ -18339,7 +18336,7 @@
         <v>427</v>
       </c>
       <c r="F830" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="831" spans="1:6">
@@ -18359,7 +18356,7 @@
         <v>356</v>
       </c>
       <c r="F831" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="832" spans="1:6">
@@ -18399,7 +18396,7 @@
         <v>394</v>
       </c>
       <c r="F833" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="834" spans="1:6">
@@ -18419,7 +18416,7 @@
         <v>332</v>
       </c>
       <c r="F834" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="835" spans="1:6">
@@ -18459,7 +18456,7 @@
         <v>434</v>
       </c>
       <c r="F836" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="837" spans="1:6">
@@ -18479,7 +18476,7 @@
         <v>339</v>
       </c>
       <c r="F837" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="838" spans="1:6">
@@ -18499,7 +18496,7 @@
         <v>351</v>
       </c>
       <c r="F838" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="839" spans="1:6">
@@ -18519,7 +18516,7 @@
         <v>374</v>
       </c>
       <c r="F839" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="840" spans="1:6">
@@ -18539,7 +18536,7 @@
         <v>359</v>
       </c>
       <c r="F840" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="841" spans="1:6">
@@ -18559,7 +18556,7 @@
         <v>424</v>
       </c>
       <c r="F841" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="842" spans="1:6">
@@ -18579,7 +18576,7 @@
         <v>344</v>
       </c>
       <c r="F842" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="843" spans="1:6">
@@ -18599,7 +18596,7 @@
         <v>422</v>
       </c>
       <c r="F843" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="844" spans="1:6">
@@ -18619,7 +18616,7 @@
         <v>388</v>
       </c>
       <c r="F844" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="845" spans="1:6">
@@ -18639,7 +18636,7 @@
         <v>404</v>
       </c>
       <c r="F845" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="846" spans="1:6">
@@ -18659,7 +18656,7 @@
         <v>360</v>
       </c>
       <c r="F846" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="847" spans="1:6">
@@ -18679,7 +18676,7 @@
         <v>344</v>
       </c>
       <c r="F847" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="848" spans="1:6">
@@ -18699,7 +18696,7 @@
         <v>351</v>
       </c>
       <c r="F848" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="849" spans="1:6">
@@ -18719,7 +18716,7 @@
         <v>332</v>
       </c>
       <c r="F849" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="850" spans="1:6">
@@ -18739,7 +18736,7 @@
         <v>337</v>
       </c>
       <c r="F850" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="851" spans="1:6">
@@ -18759,7 +18756,7 @@
         <v>367</v>
       </c>
       <c r="F851" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="852" spans="1:6">
@@ -18779,7 +18776,7 @@
         <v>392</v>
       </c>
       <c r="F852" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="853" spans="1:6">
@@ -18799,7 +18796,7 @@
         <v>412</v>
       </c>
       <c r="F853" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="854" spans="1:6">
@@ -18819,7 +18816,7 @@
         <v>360</v>
       </c>
       <c r="F854" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="855" spans="1:6">
@@ -18839,7 +18836,7 @@
         <v>427</v>
       </c>
       <c r="F855" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="856" spans="1:6">
@@ -18859,7 +18856,7 @@
         <v>357</v>
       </c>
       <c r="F856" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="857" spans="1:6">
@@ -18879,7 +18876,7 @@
         <v>426</v>
       </c>
       <c r="F857" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="858" spans="1:6">
@@ -18899,7 +18896,7 @@
         <v>403</v>
       </c>
       <c r="F858" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="859" spans="1:6">
@@ -18919,7 +18916,7 @@
         <v>433</v>
       </c>
       <c r="F859" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="860" spans="1:6">
@@ -18939,7 +18936,7 @@
         <v>382</v>
       </c>
       <c r="F860" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="861" spans="1:6">
@@ -18959,7 +18956,7 @@
         <v>396</v>
       </c>
       <c r="F861" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="862" spans="1:6">
@@ -18979,7 +18976,7 @@
         <v>450</v>
       </c>
       <c r="F862" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="863" spans="1:6">
@@ -18999,7 +18996,7 @@
         <v>384</v>
       </c>
       <c r="F863" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="864" spans="1:6">
@@ -19019,7 +19016,7 @@
         <v>444</v>
       </c>
       <c r="F864" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="865" spans="1:6">
@@ -19039,7 +19036,7 @@
         <v>444</v>
       </c>
       <c r="F865" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="866" spans="1:6">
@@ -19059,7 +19056,7 @@
         <v>344</v>
       </c>
       <c r="F866" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="867" spans="1:6">
@@ -19079,7 +19076,7 @@
         <v>340</v>
       </c>
       <c r="F867" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="868" spans="1:6">
@@ -19099,7 +19096,7 @@
         <v>338</v>
       </c>
       <c r="F868" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="869" spans="1:6">
@@ -19139,7 +19136,7 @@
         <v>349</v>
       </c>
       <c r="F870" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="871" spans="1:6">
@@ -19159,7 +19156,7 @@
         <v>338</v>
       </c>
       <c r="F871" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="872" spans="1:6">
@@ -19179,7 +19176,7 @@
         <v>338</v>
       </c>
       <c r="F872" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="873" spans="1:6">
@@ -19199,7 +19196,7 @@
         <v>420</v>
       </c>
       <c r="F873" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="874" spans="1:6">
@@ -19219,7 +19216,7 @@
         <v>404</v>
       </c>
       <c r="F874" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="875" spans="1:6">
@@ -19239,7 +19236,7 @@
         <v>423</v>
       </c>
       <c r="F875" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="876" spans="1:6">
@@ -19259,7 +19256,7 @@
         <v>405</v>
       </c>
       <c r="F876" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="877" spans="1:6">
@@ -19279,7 +19276,7 @@
         <v>382</v>
       </c>
       <c r="F877" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="878" spans="1:6">
@@ -19299,7 +19296,7 @@
         <v>349</v>
       </c>
       <c r="F878" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="879" spans="1:6">
@@ -19319,7 +19316,7 @@
         <v>434</v>
       </c>
       <c r="F879" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="880" spans="1:6">
@@ -19339,7 +19336,7 @@
         <v>338</v>
       </c>
       <c r="F880" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="881" spans="1:6">
@@ -19359,7 +19356,7 @@
         <v>338</v>
       </c>
       <c r="F881" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="882" spans="1:6">
@@ -19379,7 +19376,7 @@
         <v>358</v>
       </c>
       <c r="F882" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="883" spans="1:6">
@@ -19399,7 +19396,7 @@
         <v>344</v>
       </c>
       <c r="F883" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="884" spans="1:6">
@@ -19419,7 +19416,7 @@
         <v>340</v>
       </c>
       <c r="F884" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="885" spans="1:6">
@@ -19439,7 +19436,7 @@
         <v>338</v>
       </c>
       <c r="F885" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="886" spans="1:6">
@@ -19459,7 +19456,7 @@
         <v>377</v>
       </c>
       <c r="F886" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="887" spans="1:6">
@@ -19479,7 +19476,7 @@
         <v>359</v>
       </c>
       <c r="F887" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="888" spans="1:6">
@@ -19499,7 +19496,7 @@
         <v>354</v>
       </c>
       <c r="F888" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="889" spans="1:6">
@@ -19519,7 +19516,7 @@
         <v>338</v>
       </c>
       <c r="F889" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="890" spans="1:6">
@@ -19539,7 +19536,7 @@
         <v>386</v>
       </c>
       <c r="F890" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="891" spans="1:6">
@@ -19559,7 +19556,7 @@
         <v>339</v>
       </c>
       <c r="F891" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="892" spans="1:6">
@@ -19579,7 +19576,7 @@
         <v>338</v>
       </c>
       <c r="F892" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="893" spans="1:6">
@@ -19599,7 +19596,7 @@
         <v>345</v>
       </c>
       <c r="F893" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="894" spans="1:6">
@@ -19619,7 +19616,7 @@
         <v>384</v>
       </c>
       <c r="F894" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="895" spans="1:6">
@@ -19639,7 +19636,7 @@
         <v>338</v>
       </c>
       <c r="F895" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="896" spans="1:6">
@@ -19659,7 +19656,7 @@
         <v>344</v>
       </c>
       <c r="F896" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="897" spans="1:6">
@@ -19679,7 +19676,7 @@
         <v>376</v>
       </c>
       <c r="F897" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="898" spans="1:6">
@@ -19699,7 +19696,7 @@
         <v>361</v>
       </c>
       <c r="F898" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="899" spans="1:6">
@@ -19719,7 +19716,7 @@
         <v>368</v>
       </c>
       <c r="F899" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="900" spans="1:6">
@@ -19739,7 +19736,7 @@
         <v>371</v>
       </c>
       <c r="F900" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="901" spans="1:6">
@@ -19779,7 +19776,7 @@
         <v>403</v>
       </c>
       <c r="F902" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="903" spans="1:6">
@@ -19799,7 +19796,7 @@
         <v>371</v>
       </c>
       <c r="F903" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="904" spans="1:6">
@@ -19819,7 +19816,7 @@
         <v>339</v>
       </c>
       <c r="F904" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="905" spans="1:6">
@@ -19839,7 +19836,7 @@
         <v>434</v>
       </c>
       <c r="F905" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="906" spans="1:6">
@@ -19859,7 +19856,7 @@
         <v>338</v>
       </c>
       <c r="F906" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="907" spans="1:6">
@@ -19879,7 +19876,7 @@
         <v>338</v>
       </c>
       <c r="F907" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="908" spans="1:6">
@@ -19899,7 +19896,7 @@
         <v>338</v>
       </c>
       <c r="F908" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="909" spans="1:6">
@@ -19919,7 +19916,7 @@
         <v>338</v>
       </c>
       <c r="F909" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
     <row r="910" spans="1:6">
@@ -19939,7 +19936,7 @@
         <v>448</v>
       </c>
       <c r="F910" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="911" spans="1:6">
@@ -19959,7 +19956,7 @@
         <v>340</v>
       </c>
       <c r="F911" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="912" spans="1:6">
@@ -19979,7 +19976,7 @@
         <v>337</v>
       </c>
       <c r="F912" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="913" spans="1:6">
@@ -19999,7 +19996,7 @@
         <v>404</v>
       </c>
       <c r="F913" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="914" spans="1:6">
@@ -20019,7 +20016,7 @@
         <v>391</v>
       </c>
       <c r="F914" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="915" spans="1:6">
@@ -20039,7 +20036,7 @@
         <v>361</v>
       </c>
       <c r="F915" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="916" spans="1:6">
@@ -20059,7 +20056,7 @@
         <v>379</v>
       </c>
       <c r="F916" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="917" spans="1:6">
@@ -20079,7 +20076,7 @@
         <v>332</v>
       </c>
       <c r="F917" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="918" spans="1:6">
@@ -20099,7 +20096,7 @@
         <v>354</v>
       </c>
       <c r="F918" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="919" spans="1:6">
@@ -20119,7 +20116,7 @@
         <v>359</v>
       </c>
       <c r="F919" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="920" spans="1:6">
@@ -20139,7 +20136,7 @@
         <v>361</v>
       </c>
       <c r="F920" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="921" spans="1:6">
@@ -20159,7 +20156,7 @@
         <v>337</v>
       </c>
       <c r="F921" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="922" spans="1:6">
@@ -20179,7 +20176,7 @@
         <v>348</v>
       </c>
       <c r="F922" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="923" spans="1:6">
@@ -20199,7 +20196,7 @@
         <v>341</v>
       </c>
       <c r="F923" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="924" spans="1:6">
@@ -20219,7 +20216,7 @@
         <v>338</v>
       </c>
       <c r="F924" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/dados_meteorologicos/dados_geada.xlsx
+++ b/dados_meteorologicos/dados_geada.xlsx
@@ -1836,7 +1836,7 @@
         <v>334</v>
       </c>
       <c r="F5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2376,7 +2376,7 @@
         <v>357</v>
       </c>
       <c r="F32" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2436,7 +2436,7 @@
         <v>360</v>
       </c>
       <c r="F35" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3256,7 +3256,7 @@
         <v>360</v>
       </c>
       <c r="F76" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3416,7 +3416,7 @@
         <v>334</v>
       </c>
       <c r="F84" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4036,7 +4036,7 @@
         <v>396</v>
       </c>
       <c r="F115" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4376,7 +4376,7 @@
         <v>400</v>
       </c>
       <c r="F132" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4396,7 +4396,7 @@
         <v>334</v>
       </c>
       <c r="F133" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4556,7 +4556,7 @@
         <v>403</v>
       </c>
       <c r="F141" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4636,7 +4636,7 @@
         <v>406</v>
       </c>
       <c r="F145" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4656,7 +4656,7 @@
         <v>357</v>
       </c>
       <c r="F146" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4816,7 +4816,7 @@
         <v>408</v>
       </c>
       <c r="F154" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4876,7 +4876,7 @@
         <v>403</v>
       </c>
       <c r="F157" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4976,7 +4976,7 @@
         <v>403</v>
       </c>
       <c r="F162" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5016,7 +5016,7 @@
         <v>334</v>
       </c>
       <c r="F164" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5036,7 +5036,7 @@
         <v>400</v>
       </c>
       <c r="F165" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5136,7 +5136,7 @@
         <v>403</v>
       </c>
       <c r="F170" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5316,7 +5316,7 @@
         <v>400</v>
       </c>
       <c r="F179" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5436,7 +5436,7 @@
         <v>360</v>
       </c>
       <c r="F185" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5496,7 +5496,7 @@
         <v>406</v>
       </c>
       <c r="F188" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5736,7 +5736,7 @@
         <v>408</v>
       </c>
       <c r="F200" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5776,7 +5776,7 @@
         <v>412</v>
       </c>
       <c r="F202" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5856,7 +5856,7 @@
         <v>408</v>
       </c>
       <c r="F206" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -6256,7 +6256,7 @@
         <v>360</v>
       </c>
       <c r="F226" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6296,7 +6296,7 @@
         <v>403</v>
       </c>
       <c r="F228" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6516,7 +6516,7 @@
         <v>360</v>
       </c>
       <c r="F239" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6536,7 +6536,7 @@
         <v>396</v>
       </c>
       <c r="F240" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6616,7 +6616,7 @@
         <v>396</v>
       </c>
       <c r="F244" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6676,7 +6676,7 @@
         <v>334</v>
       </c>
       <c r="F247" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6696,7 +6696,7 @@
         <v>403</v>
       </c>
       <c r="F248" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -7056,7 +7056,7 @@
         <v>360</v>
       </c>
       <c r="F266" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -7356,7 +7356,7 @@
         <v>406</v>
       </c>
       <c r="F281" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -7496,7 +7496,7 @@
         <v>406</v>
       </c>
       <c r="F288" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -7876,7 +7876,7 @@
         <v>334</v>
       </c>
       <c r="F307" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -7956,7 +7956,7 @@
         <v>396</v>
       </c>
       <c r="F311" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -8436,7 +8436,7 @@
         <v>334</v>
       </c>
       <c r="F335" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -8456,7 +8456,7 @@
         <v>408</v>
       </c>
       <c r="F336" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -8596,7 +8596,7 @@
         <v>357</v>
       </c>
       <c r="F343" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -8716,7 +8716,7 @@
         <v>396</v>
       </c>
       <c r="F349" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -8756,7 +8756,7 @@
         <v>406</v>
       </c>
       <c r="F351" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -8776,7 +8776,7 @@
         <v>403</v>
       </c>
       <c r="F352" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -8836,7 +8836,7 @@
         <v>334</v>
       </c>
       <c r="F355" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -8856,7 +8856,7 @@
         <v>406</v>
       </c>
       <c r="F356" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -8996,7 +8996,7 @@
         <v>357</v>
       </c>
       <c r="F363" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -9056,7 +9056,7 @@
         <v>403</v>
       </c>
       <c r="F366" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -9216,7 +9216,7 @@
         <v>412</v>
       </c>
       <c r="F374" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -9236,7 +9236,7 @@
         <v>412</v>
       </c>
       <c r="F375" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -9376,7 +9376,7 @@
         <v>434</v>
       </c>
       <c r="F382" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -9416,7 +9416,7 @@
         <v>357</v>
       </c>
       <c r="F384" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -9556,7 +9556,7 @@
         <v>434</v>
       </c>
       <c r="F391" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -9736,7 +9736,7 @@
         <v>403</v>
       </c>
       <c r="F400" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -10116,7 +10116,7 @@
         <v>412</v>
       </c>
       <c r="F419" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -10136,7 +10136,7 @@
         <v>412</v>
       </c>
       <c r="F420" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -10676,7 +10676,7 @@
         <v>396</v>
       </c>
       <c r="F447" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -11156,7 +11156,7 @@
         <v>412</v>
       </c>
       <c r="F471" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="472" spans="1:6">
@@ -11176,7 +11176,7 @@
         <v>357</v>
       </c>
       <c r="F472" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="473" spans="1:6">
@@ -11276,7 +11276,7 @@
         <v>400</v>
       </c>
       <c r="F477" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="478" spans="1:6">
@@ -11296,7 +11296,7 @@
         <v>357</v>
       </c>
       <c r="F478" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="479" spans="1:6">
@@ -11356,7 +11356,7 @@
         <v>434</v>
       </c>
       <c r="F481" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -11636,7 +11636,7 @@
         <v>434</v>
       </c>
       <c r="F495" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -11696,7 +11696,7 @@
         <v>434</v>
       </c>
       <c r="F498" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="499" spans="1:6">
@@ -11716,7 +11716,7 @@
         <v>357</v>
       </c>
       <c r="F499" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="500" spans="1:6">
@@ -11836,7 +11836,7 @@
         <v>408</v>
       </c>
       <c r="F505" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="506" spans="1:6">
@@ -11976,7 +11976,7 @@
         <v>334</v>
       </c>
       <c r="F512" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="513" spans="1:6">
@@ -12096,7 +12096,7 @@
         <v>357</v>
       </c>
       <c r="F518" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="519" spans="1:6">
@@ -12136,7 +12136,7 @@
         <v>357</v>
       </c>
       <c r="F520" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -12196,7 +12196,7 @@
         <v>360</v>
       </c>
       <c r="F523" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -12236,7 +12236,7 @@
         <v>434</v>
       </c>
       <c r="F525" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -12376,7 +12376,7 @@
         <v>360</v>
       </c>
       <c r="F532" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -12476,7 +12476,7 @@
         <v>406</v>
       </c>
       <c r="F537" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="538" spans="1:6">
@@ -12696,7 +12696,7 @@
         <v>408</v>
       </c>
       <c r="F548" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -12756,7 +12756,7 @@
         <v>408</v>
       </c>
       <c r="F551" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -13236,7 +13236,7 @@
         <v>403</v>
       </c>
       <c r="F575" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -13376,7 +13376,7 @@
         <v>403</v>
       </c>
       <c r="F582" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="583" spans="1:6">
@@ -13436,7 +13436,7 @@
         <v>360</v>
       </c>
       <c r="F585" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -13476,7 +13476,7 @@
         <v>360</v>
       </c>
       <c r="F587" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -13656,7 +13656,7 @@
         <v>334</v>
       </c>
       <c r="F596" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="597" spans="1:6">
@@ -13716,7 +13716,7 @@
         <v>334</v>
       </c>
       <c r="F599" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="600" spans="1:6">
@@ -13756,7 +13756,7 @@
         <v>357</v>
       </c>
       <c r="F601" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="602" spans="1:6">
@@ -13836,7 +13836,7 @@
         <v>357</v>
       </c>
       <c r="F605" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="606" spans="1:6">
@@ -14016,7 +14016,7 @@
         <v>403</v>
       </c>
       <c r="F614" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="615" spans="1:6">
@@ -14396,7 +14396,7 @@
         <v>396</v>
       </c>
       <c r="F633" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="634" spans="1:6">
@@ -14536,7 +14536,7 @@
         <v>357</v>
       </c>
       <c r="F640" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="641" spans="1:6">
@@ -14656,7 +14656,7 @@
         <v>360</v>
       </c>
       <c r="F646" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="647" spans="1:6">
@@ -14676,7 +14676,7 @@
         <v>360</v>
       </c>
       <c r="F647" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="648" spans="1:6">
@@ -14696,7 +14696,7 @@
         <v>434</v>
       </c>
       <c r="F648" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="649" spans="1:6">
@@ -14836,7 +14836,7 @@
         <v>334</v>
       </c>
       <c r="F655" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="656" spans="1:6">
@@ -14936,7 +14936,7 @@
         <v>403</v>
       </c>
       <c r="F660" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="661" spans="1:6">
@@ -15016,7 +15016,7 @@
         <v>357</v>
       </c>
       <c r="F664" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="665" spans="1:6">
@@ -15216,7 +15216,7 @@
         <v>403</v>
       </c>
       <c r="F674" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="675" spans="1:6">
@@ -15276,7 +15276,7 @@
         <v>396</v>
       </c>
       <c r="F677" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="678" spans="1:6">
@@ -15456,7 +15456,7 @@
         <v>360</v>
       </c>
       <c r="F686" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="687" spans="1:6">
@@ -15536,7 +15536,7 @@
         <v>406</v>
       </c>
       <c r="F690" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="691" spans="1:6">
@@ -15556,7 +15556,7 @@
         <v>360</v>
       </c>
       <c r="F691" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="692" spans="1:6">
@@ -15576,7 +15576,7 @@
         <v>360</v>
       </c>
       <c r="F692" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="693" spans="1:6">
@@ -15596,7 +15596,7 @@
         <v>400</v>
       </c>
       <c r="F693" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="694" spans="1:6">
@@ -15656,7 +15656,7 @@
         <v>434</v>
       </c>
       <c r="F696" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="697" spans="1:6">
@@ -16896,7 +16896,7 @@
         <v>360</v>
       </c>
       <c r="F758" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="759" spans="1:6">
@@ -16956,7 +16956,7 @@
         <v>357</v>
       </c>
       <c r="F761" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="762" spans="1:6">
@@ -17036,7 +17036,7 @@
         <v>434</v>
       </c>
       <c r="F765" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="766" spans="1:6">
@@ -17316,7 +17316,7 @@
         <v>360</v>
       </c>
       <c r="F779" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="780" spans="1:6">
@@ -17576,7 +17576,7 @@
         <v>400</v>
       </c>
       <c r="F792" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="793" spans="1:6">
@@ -17756,7 +17756,7 @@
         <v>396</v>
       </c>
       <c r="F801" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="802" spans="1:6">
@@ -18096,7 +18096,7 @@
         <v>400</v>
       </c>
       <c r="F818" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="819" spans="1:6">
@@ -18136,7 +18136,7 @@
         <v>357</v>
       </c>
       <c r="F820" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="821" spans="1:6">
@@ -18156,7 +18156,7 @@
         <v>396</v>
       </c>
       <c r="F821" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="822" spans="1:6">
@@ -18236,7 +18236,7 @@
         <v>434</v>
       </c>
       <c r="F825" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="826" spans="1:6">
@@ -18456,7 +18456,7 @@
         <v>434</v>
       </c>
       <c r="F836" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="837" spans="1:6">
@@ -18656,7 +18656,7 @@
         <v>360</v>
       </c>
       <c r="F846" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="847" spans="1:6">
@@ -18796,7 +18796,7 @@
         <v>412</v>
       </c>
       <c r="F853" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="854" spans="1:6">
@@ -18816,7 +18816,7 @@
         <v>360</v>
       </c>
       <c r="F854" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="855" spans="1:6">
@@ -18856,7 +18856,7 @@
         <v>357</v>
       </c>
       <c r="F856" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="857" spans="1:6">
@@ -18896,7 +18896,7 @@
         <v>403</v>
       </c>
       <c r="F858" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="859" spans="1:6">
@@ -18956,7 +18956,7 @@
         <v>396</v>
       </c>
       <c r="F861" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="862" spans="1:6">
@@ -19316,7 +19316,7 @@
         <v>434</v>
       </c>
       <c r="F879" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="880" spans="1:6">
@@ -19776,7 +19776,7 @@
         <v>403</v>
       </c>
       <c r="F902" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="903" spans="1:6">
@@ -19836,7 +19836,7 @@
         <v>434</v>
       </c>
       <c r="F905" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="906" spans="1:6">
